--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_paper_forest_products.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_paper_forest_products.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="nzse_arb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1828358208955224</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="H2">
-        <v>0.1828358208955224</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="I2">
-        <v>-0.009153820101288316</v>
+        <v>0.06959706959706959</v>
       </c>
       <c r="J2">
-        <v>-0.009153820101288316</v>
+        <v>0.06959706959706959</v>
       </c>
       <c r="K2">
-        <v>-4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L2">
-        <v>-0.09141791044776119</v>
+        <v>0.07875457875457875</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +626,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="V2">
-        <v>0.08437500000000001</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="W2">
-        <v>-0.03288590604026846</v>
+        <v>0.02996515679442508</v>
       </c>
       <c r="X2">
-        <v>0.07877150747526662</v>
+        <v>0.06660000741880422</v>
       </c>
       <c r="Y2">
-        <v>-0.1116574135155351</v>
+        <v>-0.03663485062437913</v>
       </c>
       <c r="Z2">
-        <v>0.3029049081607846</v>
+        <v>0.2988505747126437</v>
       </c>
       <c r="AA2">
-        <v>-0.002772737037101081</v>
+        <v>0.02079912424740011</v>
       </c>
       <c r="AB2">
-        <v>0.05541334891257066</v>
+        <v>0.04379872266019463</v>
       </c>
       <c r="AC2">
-        <v>-0.05818608594967174</v>
+        <v>-0.02299959841279452</v>
       </c>
       <c r="AD2">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="AE2">
-        <v>3.953223787145269</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>48.55322378714527</v>
+        <v>44.5</v>
       </c>
       <c r="AG2">
-        <v>43.15322378714527</v>
+        <v>39.4</v>
       </c>
       <c r="AH2">
-        <v>0.4313801253615496</v>
+        <v>0.4320388349514563</v>
       </c>
       <c r="AI2">
-        <v>0.252811292774535</v>
+        <v>0.2318916102136529</v>
       </c>
       <c r="AJ2">
-        <v>0.4027244562689694</v>
+        <v>0.4024514811031665</v>
       </c>
       <c r="AK2">
-        <v>0.2311946341540618</v>
+        <v>0.2109207708779443</v>
       </c>
       <c r="AL2">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="AM2">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN2">
-        <v>4.901098901098901</v>
+        <v>3.869565217391304</v>
       </c>
       <c r="AO2">
-        <v>-0.3478260869565218</v>
+        <v>7.6</v>
       </c>
       <c r="AP2">
-        <v>4.742112504081899</v>
+        <v>3.426086956521739</v>
       </c>
       <c r="AQ2">
-        <v>-0.3478260869565218</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1828358208955224</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="H3">
-        <v>0.1828358208955224</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="I3">
-        <v>-0.009153820101288316</v>
+        <v>0.06959706959706959</v>
       </c>
       <c r="J3">
-        <v>-0.009153820101288316</v>
+        <v>0.06959706959706959</v>
       </c>
       <c r="K3">
-        <v>-4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L3">
-        <v>-0.09141791044776119</v>
+        <v>0.07875457875457875</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +751,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="V3">
-        <v>0.08437500000000001</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="W3">
-        <v>-0.03288590604026846</v>
+        <v>0.02996515679442508</v>
       </c>
       <c r="X3">
-        <v>0.07877150747526662</v>
+        <v>0.06660000741880422</v>
       </c>
       <c r="Y3">
-        <v>-0.1116574135155351</v>
+        <v>-0.03663485062437913</v>
       </c>
       <c r="Z3">
-        <v>0.3029049081607846</v>
+        <v>0.2988505747126437</v>
       </c>
       <c r="AA3">
-        <v>-0.002772737037101081</v>
+        <v>0.02079912424740011</v>
       </c>
       <c r="AB3">
-        <v>0.05541334891257066</v>
+        <v>0.04379872266019463</v>
       </c>
       <c r="AC3">
-        <v>-0.05818608594967174</v>
+        <v>-0.02299959841279452</v>
       </c>
       <c r="AD3">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="AE3">
-        <v>3.953223787145269</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>48.55322378714527</v>
+        <v>44.5</v>
       </c>
       <c r="AG3">
-        <v>43.15322378714527</v>
+        <v>39.4</v>
       </c>
       <c r="AH3">
-        <v>0.4313801253615496</v>
+        <v>0.4320388349514563</v>
       </c>
       <c r="AI3">
-        <v>0.252811292774535</v>
+        <v>0.2318916102136529</v>
       </c>
       <c r="AJ3">
-        <v>0.4027244562689694</v>
+        <v>0.4024514811031665</v>
       </c>
       <c r="AK3">
-        <v>0.2311946341540618</v>
+        <v>0.2109207708779443</v>
       </c>
       <c r="AL3">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="AM3">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN3">
-        <v>4.901098901098901</v>
+        <v>3.869565217391304</v>
       </c>
       <c r="AO3">
-        <v>-0.3478260869565218</v>
+        <v>7.6</v>
       </c>
       <c r="AP3">
-        <v>4.742112504081899</v>
+        <v>3.426086956521739</v>
       </c>
       <c r="AQ3">
-        <v>-0.3478260869565218</v>
+        <v>7.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ArborGen Holdings Limited (NZSE:ARB)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NZSE:ARB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Paper/Forest Products</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.432038834951456</v>
+      </c>
+      <c r="F2">
+        <v>0.19</v>
+      </c>
+      <c r="G2">
+        <v>58.5</v>
+      </c>
+      <c r="H2">
+        <v>80.07935273263099</v>
+      </c>
+      <c r="I2">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="J2">
+        <v>94.54935273263099</v>
+      </c>
+      <c r="K2">
+        <v>44.5</v>
+      </c>
+      <c r="L2">
+        <v>19.57</v>
+      </c>
+      <c r="M2">
+        <v>0.0437987226601946</v>
+      </c>
+      <c r="N2">
+        <v>0.0450212910593245</v>
+      </c>
+      <c r="O2">
+        <v>0.013824</v>
+      </c>
+      <c r="P2">
+        <v>0.012816</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0666000074188042</v>
+      </c>
+      <c r="T2">
+        <v>0.0525756185917587</v>
+      </c>
+      <c r="U2">
+        <v>1.21398320802551</v>
+      </c>
+      <c r="V2">
+        <v>0.916856326096583</v>
+      </c>
+      <c r="W2">
+        <v>10.90869422930075</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>58.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0192</v>
+      </c>
+      <c r="AD2">
+        <v>0.28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>11.5</v>
+      </c>
+      <c r="AH2">
+        <v>7.7</v>
+      </c>
+      <c r="AI2">
+        <v>9.4</v>
+      </c>
+      <c r="AJ2">
+        <v>44.5</v>
+      </c>
+      <c r="AK2">
+        <v>44.5</v>
+      </c>
+      <c r="AL2">
+        <v>0.5</v>
+      </c>
+      <c r="AM2">
+        <v>44.5</v>
+      </c>
+      <c r="AN2">
+        <v>5.1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0463228676165236</v>
+      </c>
+      <c r="C2">
+        <v>96.32537409624322</v>
+      </c>
+      <c r="D2">
+        <v>91.22537409624323</v>
+      </c>
+      <c r="E2">
+        <v>-44.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5.1</v>
+      </c>
+      <c r="H2">
+        <v>58.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>11.5</v>
+      </c>
+      <c r="K2">
+        <v>7.7</v>
+      </c>
+      <c r="L2">
+        <v>3.8</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3.8</v>
+      </c>
+      <c r="O2">
+        <v>1.064</v>
+      </c>
+      <c r="P2">
+        <v>2.736</v>
+      </c>
+      <c r="Q2">
+        <v>10.436</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.0463228676165236</v>
+      </c>
+      <c r="T2">
+        <v>0.7843827884856694</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.04624284358719733</v>
+      </c>
+      <c r="C3">
+        <v>95.4929826532225</v>
+      </c>
+      <c r="D3">
+        <v>91.4229826532225</v>
+      </c>
+      <c r="E3">
+        <v>-43.47</v>
+      </c>
+      <c r="F3">
+        <v>1.03</v>
+      </c>
+      <c r="G3">
+        <v>5.1</v>
+      </c>
+      <c r="H3">
+        <v>58.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>11.5</v>
+      </c>
+      <c r="K3">
+        <v>7.7</v>
+      </c>
+      <c r="L3">
+        <v>3.8</v>
+      </c>
+      <c r="M3">
+        <v>0.016686</v>
+      </c>
+      <c r="N3">
+        <v>3.783314</v>
+      </c>
+      <c r="O3">
+        <v>1.05932792</v>
+      </c>
+      <c r="P3">
+        <v>2.72398608</v>
+      </c>
+      <c r="Q3">
+        <v>10.42398608</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04659212483555286</v>
+      </c>
+      <c r="T3">
+        <v>0.7900873905837471</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.28</v>
+      </c>
+      <c r="W3">
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>227.735826441328</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04616281955787107</v>
+      </c>
+      <c r="C4">
+        <v>94.66144917132078</v>
+      </c>
+      <c r="D4">
+        <v>91.62144917132079</v>
+      </c>
+      <c r="E4">
+        <v>-42.44</v>
+      </c>
+      <c r="F4">
+        <v>2.06</v>
+      </c>
+      <c r="G4">
+        <v>5.1</v>
+      </c>
+      <c r="H4">
+        <v>58.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>11.5</v>
+      </c>
+      <c r="K4">
+        <v>7.7</v>
+      </c>
+      <c r="L4">
+        <v>3.8</v>
+      </c>
+      <c r="M4">
+        <v>0.033372</v>
+      </c>
+      <c r="N4">
+        <v>3.766628</v>
+      </c>
+      <c r="O4">
+        <v>1.05465584</v>
+      </c>
+      <c r="P4">
+        <v>2.71197216</v>
+      </c>
+      <c r="Q4">
+        <v>10.41197216</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04686687709986843</v>
+      </c>
+      <c r="T4">
+        <v>0.7959084131328058</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>113.867913220664</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04608279552854479</v>
+      </c>
+      <c r="C5">
+        <v>93.83077925023531</v>
+      </c>
+      <c r="D5">
+        <v>91.82077925023532</v>
+      </c>
+      <c r="E5">
+        <v>-41.41</v>
+      </c>
+      <c r="F5">
+        <v>3.09</v>
+      </c>
+      <c r="G5">
+        <v>5.1</v>
+      </c>
+      <c r="H5">
+        <v>58.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>11.5</v>
+      </c>
+      <c r="K5">
+        <v>7.7</v>
+      </c>
+      <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>0.050058</v>
+      </c>
+      <c r="N5">
+        <v>3.749942</v>
+      </c>
+      <c r="O5">
+        <v>1.04998376</v>
+      </c>
+      <c r="P5">
+        <v>2.69995824</v>
+      </c>
+      <c r="Q5">
+        <v>10.39995824</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04714729435932453</v>
+      </c>
+      <c r="T5">
+        <v>0.8018494567653504</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>75.91194214710936</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04600277149921853</v>
+      </c>
+      <c r="C6">
+        <v>93.00097853849988</v>
+      </c>
+      <c r="D6">
+        <v>92.02097853849989</v>
+      </c>
+      <c r="E6">
+        <v>-40.38</v>
+      </c>
+      <c r="F6">
+        <v>4.12</v>
+      </c>
+      <c r="G6">
+        <v>5.1</v>
+      </c>
+      <c r="H6">
+        <v>58.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>11.5</v>
+      </c>
+      <c r="K6">
+        <v>7.7</v>
+      </c>
+      <c r="L6">
+        <v>3.8</v>
+      </c>
+      <c r="M6">
+        <v>0.066744</v>
+      </c>
+      <c r="N6">
+        <v>3.733256</v>
+      </c>
+      <c r="O6">
+        <v>1.04531168</v>
+      </c>
+      <c r="P6">
+        <v>2.68794432</v>
+      </c>
+      <c r="Q6">
+        <v>10.38794432</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04743355364501931</v>
+      </c>
+      <c r="T6">
+        <v>0.8079142721402396</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>56.93395661033202</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04592274746989226</v>
+      </c>
+      <c r="C7">
+        <v>92.17205273401871</v>
+      </c>
+      <c r="D7">
+        <v>92.22205273401872</v>
+      </c>
+      <c r="E7">
+        <v>-39.35</v>
+      </c>
+      <c r="F7">
+        <v>5.15</v>
+      </c>
+      <c r="G7">
+        <v>5.1</v>
+      </c>
+      <c r="H7">
+        <v>58.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>11.5</v>
+      </c>
+      <c r="K7">
+        <v>7.7</v>
+      </c>
+      <c r="L7">
+        <v>3.8</v>
+      </c>
+      <c r="M7">
+        <v>0.08343</v>
+      </c>
+      <c r="N7">
+        <v>3.71657</v>
+      </c>
+      <c r="O7">
+        <v>1.0406396</v>
+      </c>
+      <c r="P7">
+        <v>2.6759304</v>
+      </c>
+      <c r="Q7">
+        <v>10.3759304</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.04772583944199185</v>
+      </c>
+      <c r="T7">
+        <v>0.8141067678388105</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.011664</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>45.54716528826561</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.045842723440566</v>
+      </c>
+      <c r="C8">
+        <v>91.34400758460663</v>
+      </c>
+      <c r="D8">
+        <v>92.42400758460664</v>
+      </c>
+      <c r="E8">
+        <v>-38.32</v>
+      </c>
+      <c r="F8">
+        <v>6.18</v>
+      </c>
+      <c r="G8">
+        <v>5.1</v>
+      </c>
+      <c r="H8">
+        <v>58.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>11.5</v>
+      </c>
+      <c r="K8">
+        <v>7.7</v>
+      </c>
+      <c r="L8">
+        <v>3.8</v>
+      </c>
+      <c r="M8">
+        <v>0.100116</v>
+      </c>
+      <c r="N8">
+        <v>3.699884</v>
+      </c>
+      <c r="O8">
+        <v>1.03596752</v>
+      </c>
+      <c r="P8">
+        <v>2.66391648</v>
+      </c>
+      <c r="Q8">
+        <v>10.36391648</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04802434408570851</v>
+      </c>
+      <c r="T8">
+        <v>0.8204310187650109</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.011664</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>37.95597107355468</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04576269941123973</v>
+      </c>
+      <c r="C9">
+        <v>90.51684888853711</v>
+      </c>
+      <c r="D9">
+        <v>92.62684888853711</v>
+      </c>
+      <c r="E9">
+        <v>-37.29</v>
+      </c>
+      <c r="F9">
+        <v>7.210000000000001</v>
+      </c>
+      <c r="G9">
+        <v>5.1</v>
+      </c>
+      <c r="H9">
+        <v>58.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>11.5</v>
+      </c>
+      <c r="K9">
+        <v>7.7</v>
+      </c>
+      <c r="L9">
+        <v>3.8</v>
+      </c>
+      <c r="M9">
+        <v>0.116802</v>
+      </c>
+      <c r="N9">
+        <v>3.683198</v>
+      </c>
+      <c r="O9">
+        <v>1.03129544</v>
+      </c>
+      <c r="P9">
+        <v>2.65190256</v>
+      </c>
+      <c r="Q9">
+        <v>10.35190256</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04832926818412875</v>
+      </c>
+      <c r="T9">
+        <v>0.8268912750874735</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.011664</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>32.53368949161829</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04568267538191348</v>
+      </c>
+      <c r="C10">
+        <v>89.690582495097</v>
+      </c>
+      <c r="D10">
+        <v>92.830582495097</v>
+      </c>
+      <c r="E10">
+        <v>-36.26</v>
+      </c>
+      <c r="F10">
+        <v>8.24</v>
+      </c>
+      <c r="G10">
+        <v>5.1</v>
+      </c>
+      <c r="H10">
+        <v>58.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>11.5</v>
+      </c>
+      <c r="K10">
+        <v>7.7</v>
+      </c>
+      <c r="L10">
+        <v>3.8</v>
+      </c>
+      <c r="M10">
+        <v>0.133488</v>
+      </c>
+      <c r="N10">
+        <v>3.666512</v>
+      </c>
+      <c r="O10">
+        <v>1.02662336</v>
+      </c>
+      <c r="P10">
+        <v>2.63988864</v>
+      </c>
+      <c r="Q10">
+        <v>10.33988864</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04864082106729725</v>
+      </c>
+      <c r="T10">
+        <v>0.8334919717647722</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.011664</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>28.46697830516601</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0456026513525872</v>
+      </c>
+      <c r="C11">
+        <v>88.86521430514891</v>
+      </c>
+      <c r="D11">
+        <v>93.03521430514891</v>
+      </c>
+      <c r="E11">
+        <v>-35.23</v>
+      </c>
+      <c r="F11">
+        <v>9.27</v>
+      </c>
+      <c r="G11">
+        <v>5.1</v>
+      </c>
+      <c r="H11">
+        <v>58.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>11.5</v>
+      </c>
+      <c r="K11">
+        <v>7.7</v>
+      </c>
+      <c r="L11">
+        <v>3.8</v>
+      </c>
+      <c r="M11">
+        <v>0.150174</v>
+      </c>
+      <c r="N11">
+        <v>3.649826</v>
+      </c>
+      <c r="O11">
+        <v>1.02195128</v>
+      </c>
+      <c r="P11">
+        <v>2.62787472</v>
+      </c>
+      <c r="Q11">
+        <v>10.32787472</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04895922126657934</v>
+      </c>
+      <c r="T11">
+        <v>0.840237738698715</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.28</v>
+      </c>
+      <c r="W11">
+        <v>0.011664</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>25.30398071570312</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.04552262732326093</v>
+      </c>
+      <c r="C12">
+        <v>88.04075027170067</v>
+      </c>
+      <c r="D12">
+        <v>93.24075027170068</v>
+      </c>
+      <c r="E12">
+        <v>-34.2</v>
+      </c>
+      <c r="F12">
+        <v>10.3</v>
+      </c>
+      <c r="G12">
+        <v>5.1</v>
+      </c>
+      <c r="H12">
+        <v>58.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11.5</v>
+      </c>
+      <c r="K12">
+        <v>7.7</v>
+      </c>
+      <c r="L12">
+        <v>3.8</v>
+      </c>
+      <c r="M12">
+        <v>0.16686</v>
+      </c>
+      <c r="N12">
+        <v>3.63314</v>
+      </c>
+      <c r="O12">
+        <v>1.0172792</v>
+      </c>
+      <c r="P12">
+        <v>2.6158608</v>
+      </c>
+      <c r="Q12">
+        <v>10.3158608</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.04928469702584548</v>
+      </c>
+      <c r="T12">
+        <v>0.847133411564523</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.28</v>
+      </c>
+      <c r="W12">
+        <v>0.011664</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>22.77358264413281</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.04544260329393467</v>
+      </c>
+      <c r="C13">
+        <v>87.21719640048293</v>
+      </c>
+      <c r="D13">
+        <v>93.44719640048294</v>
+      </c>
+      <c r="E13">
+        <v>-33.17</v>
+      </c>
+      <c r="F13">
+        <v>11.33</v>
+      </c>
+      <c r="G13">
+        <v>5.1</v>
+      </c>
+      <c r="H13">
+        <v>58.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>11.5</v>
+      </c>
+      <c r="K13">
+        <v>7.7</v>
+      </c>
+      <c r="L13">
+        <v>3.8</v>
+      </c>
+      <c r="M13">
+        <v>0.183546</v>
+      </c>
+      <c r="N13">
+        <v>3.616454</v>
+      </c>
+      <c r="O13">
+        <v>1.01260712</v>
+      </c>
+      <c r="P13">
+        <v>2.60384688</v>
+      </c>
+      <c r="Q13">
+        <v>10.30384688</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0496174868471176</v>
+      </c>
+      <c r="T13">
+        <v>0.8541840433711357</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.28</v>
+      </c>
+      <c r="W13">
+        <v>0.011664</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>20.70325694921164</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.0453625792646084</v>
+      </c>
+      <c r="C14">
+        <v>86.39455875053393</v>
+      </c>
+      <c r="D14">
+        <v>93.65455875053394</v>
+      </c>
+      <c r="E14">
+        <v>-32.14</v>
+      </c>
+      <c r="F14">
+        <v>12.36</v>
+      </c>
+      <c r="G14">
+        <v>5.1</v>
+      </c>
+      <c r="H14">
+        <v>58.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11.5</v>
+      </c>
+      <c r="K14">
+        <v>7.7</v>
+      </c>
+      <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
+        <v>0.200232</v>
+      </c>
+      <c r="N14">
+        <v>3.599768</v>
+      </c>
+      <c r="O14">
+        <v>1.00793504</v>
+      </c>
+      <c r="P14">
+        <v>2.59183296</v>
+      </c>
+      <c r="Q14">
+        <v>10.29183296</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.04995784007341864</v>
+      </c>
+      <c r="T14">
+        <v>0.8613949168097169</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.28</v>
+      </c>
+      <c r="W14">
+        <v>0.011664</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>18.97798553677734</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.04528255523528213</v>
+      </c>
+      <c r="C15">
+        <v>85.57284343479233</v>
+      </c>
+      <c r="D15">
+        <v>93.86284343479234</v>
+      </c>
+      <c r="E15">
+        <v>-31.11</v>
+      </c>
+      <c r="F15">
+        <v>13.39</v>
+      </c>
+      <c r="G15">
+        <v>5.1</v>
+      </c>
+      <c r="H15">
+        <v>58.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>11.5</v>
+      </c>
+      <c r="K15">
+        <v>7.7</v>
+      </c>
+      <c r="L15">
+        <v>3.8</v>
+      </c>
+      <c r="M15">
+        <v>0.216918</v>
+      </c>
+      <c r="N15">
+        <v>3.583082</v>
+      </c>
+      <c r="O15">
+        <v>1.00326296</v>
+      </c>
+      <c r="P15">
+        <v>2.579819039999999</v>
+      </c>
+      <c r="Q15">
+        <v>10.27981904</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05030601751181854</v>
+      </c>
+      <c r="T15">
+        <v>0.8687715574537828</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.28</v>
+      </c>
+      <c r="W15">
+        <v>0.011664</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>17.51814049548677</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.04520253120595587</v>
+      </c>
+      <c r="C16">
+        <v>84.75205662069789</v>
+      </c>
+      <c r="D16">
+        <v>94.07205662069789</v>
+      </c>
+      <c r="E16">
+        <v>-30.08</v>
+      </c>
+      <c r="F16">
+        <v>14.42</v>
+      </c>
+      <c r="G16">
+        <v>5.1</v>
+      </c>
+      <c r="H16">
+        <v>58.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>11.5</v>
+      </c>
+      <c r="K16">
+        <v>7.7</v>
+      </c>
+      <c r="L16">
+        <v>3.8</v>
+      </c>
+      <c r="M16">
+        <v>0.233604</v>
+      </c>
+      <c r="N16">
+        <v>3.566396</v>
+      </c>
+      <c r="O16">
+        <v>0.99859088</v>
+      </c>
+      <c r="P16">
+        <v>2.56780512</v>
+      </c>
+      <c r="Q16">
+        <v>10.26780512</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05066229209994869</v>
+      </c>
+      <c r="T16">
+        <v>0.8763197478802688</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.28</v>
+      </c>
+      <c r="W16">
+        <v>0.011664</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>16.26684474580914</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0451225071766296</v>
+      </c>
+      <c r="C17">
+        <v>83.93220453080031</v>
+      </c>
+      <c r="D17">
+        <v>94.28220453080031</v>
+      </c>
+      <c r="E17">
+        <v>-29.05</v>
+      </c>
+      <c r="F17">
+        <v>15.45</v>
+      </c>
+      <c r="G17">
+        <v>5.1</v>
+      </c>
+      <c r="H17">
+        <v>58.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>11.5</v>
+      </c>
+      <c r="K17">
+        <v>7.7</v>
+      </c>
+      <c r="L17">
+        <v>3.8</v>
+      </c>
+      <c r="M17">
+        <v>0.25029</v>
+      </c>
+      <c r="N17">
+        <v>3.54971</v>
+      </c>
+      <c r="O17">
+        <v>0.9939188</v>
+      </c>
+      <c r="P17">
+        <v>2.5557912</v>
+      </c>
+      <c r="Q17">
+        <v>10.2557912</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05102694961956424</v>
+      </c>
+      <c r="T17">
+        <v>0.884045542787378</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.28</v>
+      </c>
+      <c r="W17">
+        <v>0.011664</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>15.18238842942187</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.04504248314730334</v>
+      </c>
+      <c r="C18">
+        <v>83.11329344337595</v>
+      </c>
+      <c r="D18">
+        <v>94.49329344337596</v>
+      </c>
+      <c r="E18">
+        <v>-28.02</v>
+      </c>
+      <c r="F18">
+        <v>16.48</v>
+      </c>
+      <c r="G18">
+        <v>5.1</v>
+      </c>
+      <c r="H18">
+        <v>58.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>11.5</v>
+      </c>
+      <c r="K18">
+        <v>7.7</v>
+      </c>
+      <c r="L18">
+        <v>3.8</v>
+      </c>
+      <c r="M18">
+        <v>0.266976</v>
+      </c>
+      <c r="N18">
+        <v>3.533024</v>
+      </c>
+      <c r="O18">
+        <v>0.98924672</v>
+      </c>
+      <c r="P18">
+        <v>2.54377728</v>
+      </c>
+      <c r="Q18">
+        <v>10.24377728</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0514002894610754</v>
+      </c>
+      <c r="T18">
+        <v>0.8919552851922756</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.28</v>
+      </c>
+      <c r="W18">
+        <v>0.011664</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>14.233489152583</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.04515829911797707</v>
+      </c>
+      <c r="C19">
+        <v>81.778096800716</v>
+      </c>
+      <c r="D19">
+        <v>94.18809680071601</v>
+      </c>
+      <c r="E19">
+        <v>-26.99</v>
+      </c>
+      <c r="F19">
+        <v>17.51</v>
+      </c>
+      <c r="G19">
+        <v>5.1</v>
+      </c>
+      <c r="H19">
+        <v>58.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>11.5</v>
+      </c>
+      <c r="K19">
+        <v>7.7</v>
+      </c>
+      <c r="L19">
+        <v>3.8</v>
+      </c>
+      <c r="M19">
+        <v>0.311678</v>
+      </c>
+      <c r="N19">
+        <v>3.488322</v>
+      </c>
+      <c r="O19">
+        <v>0.97673016</v>
+      </c>
+      <c r="P19">
+        <v>2.511591839999999</v>
+      </c>
+      <c r="Q19">
+        <v>10.21159184</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05178262544334587</v>
+      </c>
+      <c r="T19">
+        <v>0.9000556237997006</v>
+      </c>
+      <c r="U19">
+        <v>0.0178</v>
+      </c>
+      <c r="V19">
+        <v>0.28</v>
+      </c>
+      <c r="W19">
+        <v>0.012816</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>12.19207002098319</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.04508979508865081</v>
+      </c>
+      <c r="C20">
+        <v>80.92837903282825</v>
+      </c>
+      <c r="D20">
+        <v>94.36837903282824</v>
+      </c>
+      <c r="E20">
+        <v>-25.96</v>
+      </c>
+      <c r="F20">
+        <v>18.54</v>
+      </c>
+      <c r="G20">
+        <v>5.1</v>
+      </c>
+      <c r="H20">
+        <v>58.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>11.5</v>
+      </c>
+      <c r="K20">
+        <v>7.7</v>
+      </c>
+      <c r="L20">
+        <v>3.8</v>
+      </c>
+      <c r="M20">
+        <v>0.330012</v>
+      </c>
+      <c r="N20">
+        <v>3.469988</v>
+      </c>
+      <c r="O20">
+        <v>0.97159664</v>
+      </c>
+      <c r="P20">
+        <v>2.49839136</v>
+      </c>
+      <c r="Q20">
+        <v>10.19839136</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0521742866934766</v>
+      </c>
+      <c r="T20">
+        <v>0.9083535316414533</v>
+      </c>
+      <c r="U20">
+        <v>0.0178</v>
+      </c>
+      <c r="V20">
+        <v>0.28</v>
+      </c>
+      <c r="W20">
+        <v>0.012816</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>11.51473279759524</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.04502129105932454</v>
+      </c>
+      <c r="C21">
+        <v>80.07935273263101</v>
+      </c>
+      <c r="D21">
+        <v>94.54935273263101</v>
+      </c>
+      <c r="E21">
+        <v>-24.93</v>
+      </c>
+      <c r="F21">
+        <v>19.57</v>
+      </c>
+      <c r="G21">
+        <v>5.1</v>
+      </c>
+      <c r="H21">
+        <v>58.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>11.5</v>
+      </c>
+      <c r="K21">
+        <v>7.7</v>
+      </c>
+      <c r="L21">
+        <v>3.8</v>
+      </c>
+      <c r="M21">
+        <v>0.348346</v>
+      </c>
+      <c r="N21">
+        <v>3.451654</v>
+      </c>
+      <c r="O21">
+        <v>0.9664631200000001</v>
+      </c>
+      <c r="P21">
+        <v>2.48519088</v>
+      </c>
+      <c r="Q21">
+        <v>10.18519088</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05257561859175869</v>
+      </c>
+      <c r="T21">
+        <v>0.9168563260965825</v>
+      </c>
+      <c r="U21">
+        <v>0.0178</v>
+      </c>
+      <c r="V21">
+        <v>0.28</v>
+      </c>
+      <c r="W21">
+        <v>0.012816</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>10.90869422930075</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.04526958702999828</v>
+      </c>
+      <c r="C22">
+        <v>78.39668404077909</v>
+      </c>
+      <c r="D22">
+        <v>93.89668404077909</v>
+      </c>
+      <c r="E22">
+        <v>-23.9</v>
+      </c>
+      <c r="F22">
+        <v>20.6</v>
+      </c>
+      <c r="G22">
+        <v>5.1</v>
+      </c>
+      <c r="H22">
+        <v>58.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>11.5</v>
+      </c>
+      <c r="K22">
+        <v>7.7</v>
+      </c>
+      <c r="L22">
+        <v>3.8</v>
+      </c>
+      <c r="M22">
+        <v>0.412</v>
+      </c>
+      <c r="N22">
+        <v>3.388</v>
+      </c>
+      <c r="O22">
+        <v>0.94864</v>
+      </c>
+      <c r="P22">
+        <v>2.43936</v>
+      </c>
+      <c r="Q22">
+        <v>10.13936</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05298698378749785</v>
+      </c>
+      <c r="T22">
+        <v>0.92557169041309</v>
+      </c>
+      <c r="U22">
+        <v>0.02</v>
+      </c>
+      <c r="V22">
+        <v>0.28</v>
+      </c>
+      <c r="W22">
+        <v>0.0144</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>9.223300970873787</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.04521692300067201</v>
+      </c>
+      <c r="C23">
+        <v>77.50436225229711</v>
+      </c>
+      <c r="D23">
+        <v>94.03436225229711</v>
+      </c>
+      <c r="E23">
+        <v>-22.87</v>
+      </c>
+      <c r="F23">
+        <v>21.63</v>
+      </c>
+      <c r="G23">
+        <v>5.1</v>
+      </c>
+      <c r="H23">
+        <v>58.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>11.5</v>
+      </c>
+      <c r="K23">
+        <v>7.7</v>
+      </c>
+      <c r="L23">
+        <v>3.8</v>
+      </c>
+      <c r="M23">
+        <v>0.4325999999999999</v>
+      </c>
+      <c r="N23">
+        <v>3.3674</v>
+      </c>
+      <c r="O23">
+        <v>0.942872</v>
+      </c>
+      <c r="P23">
+        <v>2.424528</v>
+      </c>
+      <c r="Q23">
+        <v>10.124528</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05340876329198989</v>
+      </c>
+      <c r="T23">
+        <v>0.9345076968641925</v>
+      </c>
+      <c r="U23">
+        <v>0.02</v>
+      </c>
+      <c r="V23">
+        <v>0.28</v>
+      </c>
+      <c r="W23">
+        <v>0.0144</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>8.78409616273694</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.04516425897134574</v>
+      </c>
+      <c r="C24">
+        <v>76.61244480449173</v>
+      </c>
+      <c r="D24">
+        <v>94.17244480449173</v>
+      </c>
+      <c r="E24">
+        <v>-21.84</v>
+      </c>
+      <c r="F24">
+        <v>22.66</v>
+      </c>
+      <c r="G24">
+        <v>5.1</v>
+      </c>
+      <c r="H24">
+        <v>58.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>11.5</v>
+      </c>
+      <c r="K24">
+        <v>7.7</v>
+      </c>
+      <c r="L24">
+        <v>3.8</v>
+      </c>
+      <c r="M24">
+        <v>0.4531999999999999</v>
+      </c>
+      <c r="N24">
+        <v>3.3468</v>
+      </c>
+      <c r="O24">
+        <v>0.937104</v>
+      </c>
+      <c r="P24">
+        <v>2.409696</v>
+      </c>
+      <c r="Q24">
+        <v>10.109696</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05384135765557146</v>
+      </c>
+      <c r="T24">
+        <v>0.9436728316858363</v>
+      </c>
+      <c r="U24">
+        <v>0.02</v>
+      </c>
+      <c r="V24">
+        <v>0.28</v>
+      </c>
+      <c r="W24">
+        <v>0.0144</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>8.384819064430715</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.04511159494201948</v>
+      </c>
+      <c r="C25">
+        <v>75.72093348121609</v>
+      </c>
+      <c r="D25">
+        <v>94.3109334812161</v>
+      </c>
+      <c r="E25">
+        <v>-20.81</v>
+      </c>
+      <c r="F25">
+        <v>23.69</v>
+      </c>
+      <c r="G25">
+        <v>5.1</v>
+      </c>
+      <c r="H25">
+        <v>58.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>11.5</v>
+      </c>
+      <c r="K25">
+        <v>7.7</v>
+      </c>
+      <c r="L25">
+        <v>3.8</v>
+      </c>
+      <c r="M25">
+        <v>0.4737999999999999</v>
+      </c>
+      <c r="N25">
+        <v>3.3262</v>
+      </c>
+      <c r="O25">
+        <v>0.9313360000000001</v>
+      </c>
+      <c r="P25">
+        <v>2.394864</v>
+      </c>
+      <c r="Q25">
+        <v>10.094864</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05428518823638893</v>
+      </c>
+      <c r="T25">
+        <v>0.9530760219573926</v>
+      </c>
+      <c r="U25">
+        <v>0.02</v>
+      </c>
+      <c r="V25">
+        <v>0.28</v>
+      </c>
+      <c r="W25">
+        <v>0.0144</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>8.020261713803293</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.04524901091269322</v>
+      </c>
+      <c r="C26">
+        <v>74.33042763862304</v>
+      </c>
+      <c r="D26">
+        <v>93.95042763862304</v>
+      </c>
+      <c r="E26">
+        <v>-19.78</v>
+      </c>
+      <c r="F26">
+        <v>24.72</v>
+      </c>
+      <c r="G26">
+        <v>5.1</v>
+      </c>
+      <c r="H26">
+        <v>58.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>11.5</v>
+      </c>
+      <c r="K26">
+        <v>7.7</v>
+      </c>
+      <c r="L26">
+        <v>3.8</v>
+      </c>
+      <c r="M26">
+        <v>0.5215919999999999</v>
+      </c>
+      <c r="N26">
+        <v>3.278408</v>
+      </c>
+      <c r="O26">
+        <v>0.91795424</v>
+      </c>
+      <c r="P26">
+        <v>2.36045376</v>
+      </c>
+      <c r="Q26">
+        <v>10.06045376</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05474069856933318</v>
+      </c>
+      <c r="T26">
+        <v>0.9627266646045165</v>
+      </c>
+      <c r="U26">
+        <v>0.0211</v>
+      </c>
+      <c r="V26">
+        <v>0.28</v>
+      </c>
+      <c r="W26">
+        <v>0.015192</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>7.285387812696514</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.04520426688336695</v>
+      </c>
+      <c r="C27">
+        <v>73.41750900678279</v>
+      </c>
+      <c r="D27">
+        <v>94.0675090067828</v>
+      </c>
+      <c r="E27">
+        <v>-18.75</v>
+      </c>
+      <c r="F27">
+        <v>25.75</v>
+      </c>
+      <c r="G27">
+        <v>5.1</v>
+      </c>
+      <c r="H27">
+        <v>58.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>11.5</v>
+      </c>
+      <c r="K27">
+        <v>7.7</v>
+      </c>
+      <c r="L27">
+        <v>3.8</v>
+      </c>
+      <c r="M27">
+        <v>0.5433250000000001</v>
+      </c>
+      <c r="N27">
+        <v>3.256675</v>
+      </c>
+      <c r="O27">
+        <v>0.9118689999999999</v>
+      </c>
+      <c r="P27">
+        <v>2.344806</v>
+      </c>
+      <c r="Q27">
+        <v>10.044806</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05520835584448926</v>
+      </c>
+      <c r="T27">
+        <v>0.9726346577222301</v>
+      </c>
+      <c r="U27">
+        <v>0.0211</v>
+      </c>
+      <c r="V27">
+        <v>0.28</v>
+      </c>
+      <c r="W27">
+        <v>0.015192</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>6.993972300188652</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.04515952285404069</v>
+      </c>
+      <c r="C28">
+        <v>72.50488255351904</v>
+      </c>
+      <c r="D28">
+        <v>94.18488255351905</v>
+      </c>
+      <c r="E28">
+        <v>-17.72</v>
+      </c>
+      <c r="F28">
+        <v>26.78</v>
+      </c>
+      <c r="G28">
+        <v>5.1</v>
+      </c>
+      <c r="H28">
+        <v>58.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>11.5</v>
+      </c>
+      <c r="K28">
+        <v>7.7</v>
+      </c>
+      <c r="L28">
+        <v>3.8</v>
+      </c>
+      <c r="M28">
+        <v>0.5650580000000001</v>
+      </c>
+      <c r="N28">
+        <v>3.234942</v>
+      </c>
+      <c r="O28">
+        <v>0.90578376</v>
+      </c>
+      <c r="P28">
+        <v>2.32915824</v>
+      </c>
+      <c r="Q28">
+        <v>10.02915824</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05568865250546039</v>
+      </c>
+      <c r="T28">
+        <v>0.98281043443772</v>
+      </c>
+      <c r="U28">
+        <v>0.0211</v>
+      </c>
+      <c r="V28">
+        <v>0.28</v>
+      </c>
+      <c r="W28">
+        <v>0.015192</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>6.724973365566012</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.04511477882471442</v>
+      </c>
+      <c r="C29">
+        <v>71.5925493739032</v>
+      </c>
+      <c r="D29">
+        <v>94.3025493739032</v>
+      </c>
+      <c r="E29">
+        <v>-16.69</v>
+      </c>
+      <c r="F29">
+        <v>27.81</v>
+      </c>
+      <c r="G29">
+        <v>5.1</v>
+      </c>
+      <c r="H29">
+        <v>58.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>11.5</v>
+      </c>
+      <c r="K29">
+        <v>7.7</v>
+      </c>
+      <c r="L29">
+        <v>3.8</v>
+      </c>
+      <c r="M29">
+        <v>0.5867910000000001</v>
+      </c>
+      <c r="N29">
+        <v>3.213209</v>
+      </c>
+      <c r="O29">
+        <v>0.8996985200000001</v>
+      </c>
+      <c r="P29">
+        <v>2.31351048</v>
+      </c>
+      <c r="Q29">
+        <v>10.01351048</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.05618210797906084</v>
+      </c>
+      <c r="T29">
+        <v>0.9932649995563737</v>
+      </c>
+      <c r="U29">
+        <v>0.0211</v>
+      </c>
+      <c r="V29">
+        <v>0.28</v>
+      </c>
+      <c r="W29">
+        <v>0.015192</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>6.475900277952456</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.04537243479538815</v>
+      </c>
+      <c r="C30">
+        <v>69.88897091894825</v>
+      </c>
+      <c r="D30">
+        <v>93.62897091894826</v>
+      </c>
+      <c r="E30">
+        <v>-15.66</v>
+      </c>
+      <c r="F30">
+        <v>28.84</v>
+      </c>
+      <c r="G30">
+        <v>5.1</v>
+      </c>
+      <c r="H30">
+        <v>58.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>11.5</v>
+      </c>
+      <c r="K30">
+        <v>7.7</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>0.651784</v>
+      </c>
+      <c r="N30">
+        <v>3.148216</v>
+      </c>
+      <c r="O30">
+        <v>0.88150048</v>
+      </c>
+      <c r="P30">
+        <v>2.26671552</v>
+      </c>
+      <c r="Q30">
+        <v>9.966715519999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0566892705491502</v>
+      </c>
+      <c r="T30">
+        <v>1.004009969261657</v>
+      </c>
+      <c r="U30">
+        <v>0.0226</v>
+      </c>
+      <c r="V30">
+        <v>0.28</v>
+      </c>
+      <c r="W30">
+        <v>0.016272</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>5.830152320400622</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.04533849076606188</v>
+      </c>
+      <c r="C31">
+        <v>68.94715842256187</v>
+      </c>
+      <c r="D31">
+        <v>93.71715842256187</v>
+      </c>
+      <c r="E31">
+        <v>-14.63</v>
+      </c>
+      <c r="F31">
+        <v>29.87</v>
+      </c>
+      <c r="G31">
+        <v>5.1</v>
+      </c>
+      <c r="H31">
+        <v>58.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>11.5</v>
+      </c>
+      <c r="K31">
+        <v>7.7</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>0.6750619999999999</v>
+      </c>
+      <c r="N31">
+        <v>3.124938</v>
+      </c>
+      <c r="O31">
+        <v>0.87498264</v>
+      </c>
+      <c r="P31">
+        <v>2.24995536</v>
+      </c>
+      <c r="Q31">
+        <v>9.949955360000001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.05721071938881955</v>
+      </c>
+      <c r="T31">
+        <v>1.015057614169906</v>
+      </c>
+      <c r="U31">
+        <v>0.0226</v>
+      </c>
+      <c r="V31">
+        <v>0.28</v>
+      </c>
+      <c r="W31">
+        <v>0.016272</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>5.629112585214395</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.04530454673673562</v>
+      </c>
+      <c r="C32">
+        <v>68.00551220735269</v>
+      </c>
+      <c r="D32">
+        <v>93.80551220735269</v>
+      </c>
+      <c r="E32">
+        <v>-13.6</v>
+      </c>
+      <c r="F32">
+        <v>30.9</v>
+      </c>
+      <c r="G32">
+        <v>5.1</v>
+      </c>
+      <c r="H32">
+        <v>58.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>11.5</v>
+      </c>
+      <c r="K32">
+        <v>7.7</v>
+      </c>
+      <c r="L32">
+        <v>3.8</v>
+      </c>
+      <c r="M32">
+        <v>0.69834</v>
+      </c>
+      <c r="N32">
+        <v>3.10166</v>
+      </c>
+      <c r="O32">
+        <v>0.8684648</v>
+      </c>
+      <c r="P32">
+        <v>2.2331952</v>
+      </c>
+      <c r="Q32">
+        <v>9.9331952</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.05774706676676518</v>
+      </c>
+      <c r="T32">
+        <v>1.026420906075533</v>
+      </c>
+      <c r="U32">
+        <v>0.0226</v>
+      </c>
+      <c r="V32">
+        <v>0.28</v>
+      </c>
+      <c r="W32">
+        <v>0.016272</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>5.441475499040582</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.04527060270740935</v>
+      </c>
+      <c r="C33">
+        <v>67.06403274405966</v>
+      </c>
+      <c r="D33">
+        <v>93.89403274405966</v>
+      </c>
+      <c r="E33">
+        <v>-12.57</v>
+      </c>
+      <c r="F33">
+        <v>31.93</v>
+      </c>
+      <c r="G33">
+        <v>5.1</v>
+      </c>
+      <c r="H33">
+        <v>58.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>11.5</v>
+      </c>
+      <c r="K33">
+        <v>7.7</v>
+      </c>
+      <c r="L33">
+        <v>3.8</v>
+      </c>
+      <c r="M33">
+        <v>0.721618</v>
+      </c>
+      <c r="N33">
+        <v>3.078382</v>
+      </c>
+      <c r="O33">
+        <v>0.86194696</v>
+      </c>
+      <c r="P33">
+        <v>2.21643504</v>
+      </c>
+      <c r="Q33">
+        <v>9.91643504</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.0582989604455208</v>
+      </c>
+      <c r="T33">
+        <v>1.038113568761034</v>
+      </c>
+      <c r="U33">
+        <v>0.0226</v>
+      </c>
+      <c r="V33">
+        <v>0.28</v>
+      </c>
+      <c r="W33">
+        <v>0.016272</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>5.265944031329595</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.04523665867808307</v>
+      </c>
+      <c r="C34">
+        <v>66.12272050520005</v>
+      </c>
+      <c r="D34">
+        <v>93.98272050520006</v>
+      </c>
+      <c r="E34">
+        <v>-11.54</v>
+      </c>
+      <c r="F34">
+        <v>32.96</v>
+      </c>
+      <c r="G34">
+        <v>5.1</v>
+      </c>
+      <c r="H34">
+        <v>58.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>11.5</v>
+      </c>
+      <c r="K34">
+        <v>7.7</v>
+      </c>
+      <c r="L34">
+        <v>3.8</v>
+      </c>
+      <c r="M34">
+        <v>0.744896</v>
+      </c>
+      <c r="N34">
+        <v>3.055104</v>
+      </c>
+      <c r="O34">
+        <v>0.85542912</v>
+      </c>
+      <c r="P34">
+        <v>2.19967488</v>
+      </c>
+      <c r="Q34">
+        <v>9.899674879999999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.05886708629129865</v>
+      </c>
+      <c r="T34">
+        <v>1.050150133290226</v>
+      </c>
+      <c r="U34">
+        <v>0.0226</v>
+      </c>
+      <c r="V34">
+        <v>0.28</v>
+      </c>
+      <c r="W34">
+        <v>0.016272</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>5.101383280350546</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.04520271464875681</v>
+      </c>
+      <c r="C35">
+        <v>65.18157596507825</v>
+      </c>
+      <c r="D35">
+        <v>94.07157596507825</v>
+      </c>
+      <c r="E35">
+        <v>-10.51</v>
+      </c>
+      <c r="F35">
+        <v>33.99</v>
+      </c>
+      <c r="G35">
+        <v>5.1</v>
+      </c>
+      <c r="H35">
+        <v>58.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>11.5</v>
+      </c>
+      <c r="K35">
+        <v>7.7</v>
+      </c>
+      <c r="L35">
+        <v>3.8</v>
+      </c>
+      <c r="M35">
+        <v>0.768174</v>
+      </c>
+      <c r="N35">
+        <v>3.031826</v>
+      </c>
+      <c r="O35">
+        <v>0.84891128</v>
+      </c>
+      <c r="P35">
+        <v>2.182914719999999</v>
+      </c>
+      <c r="Q35">
+        <v>9.882914719999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.05945217111754748</v>
+      </c>
+      <c r="T35">
+        <v>1.062545998253125</v>
+      </c>
+      <c r="U35">
+        <v>0.0226</v>
+      </c>
+      <c r="V35">
+        <v>0.28</v>
+      </c>
+      <c r="W35">
+        <v>0.016272</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>4.946795908218711</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.04516877061943055</v>
+      </c>
+      <c r="C36">
+        <v>64.24059959979397</v>
+      </c>
+      <c r="D36">
+        <v>94.16059959979397</v>
+      </c>
+      <c r="E36">
+        <v>-9.479999999999997</v>
+      </c>
+      <c r="F36">
+        <v>35.02</v>
+      </c>
+      <c r="G36">
+        <v>5.1</v>
+      </c>
+      <c r="H36">
+        <v>58.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>11.5</v>
+      </c>
+      <c r="K36">
+        <v>7.7</v>
+      </c>
+      <c r="L36">
+        <v>3.8</v>
+      </c>
+      <c r="M36">
+        <v>0.791452</v>
+      </c>
+      <c r="N36">
+        <v>3.008548</v>
+      </c>
+      <c r="O36">
+        <v>0.84239344</v>
+      </c>
+      <c r="P36">
+        <v>2.16615456</v>
+      </c>
+      <c r="Q36">
+        <v>9.86615456</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.060054985787016</v>
+      </c>
+      <c r="T36">
+        <v>1.075317495487627</v>
+      </c>
+      <c r="U36">
+        <v>0.0226</v>
+      </c>
+      <c r="V36">
+        <v>0.28</v>
+      </c>
+      <c r="W36">
+        <v>0.016272</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>4.80130191091816</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.04513482659010428</v>
+      </c>
+      <c r="C37">
+        <v>63.29979188725091</v>
+      </c>
+      <c r="D37">
+        <v>94.24979188725092</v>
+      </c>
+      <c r="E37">
+        <v>-8.449999999999996</v>
+      </c>
+      <c r="F37">
+        <v>36.05</v>
+      </c>
+      <c r="G37">
+        <v>5.1</v>
+      </c>
+      <c r="H37">
+        <v>58.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>11.5</v>
+      </c>
+      <c r="K37">
+        <v>7.7</v>
+      </c>
+      <c r="L37">
+        <v>3.8</v>
+      </c>
+      <c r="M37">
+        <v>0.8147300000000001</v>
+      </c>
+      <c r="N37">
+        <v>2.98527</v>
+      </c>
+      <c r="O37">
+        <v>0.8358756000000001</v>
+      </c>
+      <c r="P37">
+        <v>2.1493944</v>
+      </c>
+      <c r="Q37">
+        <v>9.8493944</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06067634860016044</v>
+      </c>
+      <c r="T37">
+        <v>1.088481961867806</v>
+      </c>
+      <c r="U37">
+        <v>0.0226</v>
+      </c>
+      <c r="V37">
+        <v>0.28</v>
+      </c>
+      <c r="W37">
+        <v>0.016272</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>4.664121856320499</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.04510088256077803</v>
+      </c>
+      <c r="C38">
+        <v>62.35915330716514</v>
+      </c>
+      <c r="D38">
+        <v>94.33915330716515</v>
+      </c>
+      <c r="E38">
+        <v>-7.420000000000002</v>
+      </c>
+      <c r="F38">
+        <v>37.08</v>
+      </c>
+      <c r="G38">
+        <v>5.1</v>
+      </c>
+      <c r="H38">
+        <v>58.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>11.5</v>
+      </c>
+      <c r="K38">
+        <v>7.7</v>
+      </c>
+      <c r="L38">
+        <v>3.8</v>
+      </c>
+      <c r="M38">
+        <v>0.8380079999999999</v>
+      </c>
+      <c r="N38">
+        <v>2.961992</v>
+      </c>
+      <c r="O38">
+        <v>0.8293577600000001</v>
+      </c>
+      <c r="P38">
+        <v>2.13263424</v>
+      </c>
+      <c r="Q38">
+        <v>9.832634240000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06131712900121566</v>
+      </c>
+      <c r="T38">
+        <v>1.102057817822366</v>
+      </c>
+      <c r="U38">
+        <v>0.0226</v>
+      </c>
+      <c r="V38">
+        <v>0.28</v>
+      </c>
+      <c r="W38">
+        <v>0.016272</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>4.534562915867152</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06937305661233895</v>
+      </c>
+      <c r="C39">
+        <v>23.21195937570013</v>
+      </c>
+      <c r="D39">
+        <v>56.22195937570012</v>
+      </c>
+      <c r="E39">
+        <v>-6.390000000000001</v>
+      </c>
+      <c r="F39">
+        <v>38.11</v>
+      </c>
+      <c r="G39">
+        <v>5.1</v>
+      </c>
+      <c r="H39">
+        <v>58.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>11.5</v>
+      </c>
+      <c r="K39">
+        <v>7.7</v>
+      </c>
+      <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
+        <v>4.15399</v>
+      </c>
+      <c r="N39">
+        <v>-0.3539900000000005</v>
+      </c>
+      <c r="O39">
+        <v>-0.09911720000000014</v>
+      </c>
+      <c r="P39">
+        <v>-0.2548728000000003</v>
+      </c>
+      <c r="Q39">
+        <v>7.4451272</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.06249706936463109</v>
+      </c>
+      <c r="T39">
+        <v>1.127056554335405</v>
+      </c>
+      <c r="U39">
+        <v>0.109</v>
+      </c>
+      <c r="V39">
+        <v>0.2561392781398126</v>
+      </c>
+      <c r="W39">
+        <v>0.08108081868276042</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.9147831362136162</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07037005661233894</v>
+      </c>
+      <c r="C40">
+        <v>21.26410704991323</v>
+      </c>
+      <c r="D40">
+        <v>55.30410704991323</v>
+      </c>
+      <c r="E40">
+        <v>-5.359999999999999</v>
+      </c>
+      <c r="F40">
+        <v>39.14</v>
+      </c>
+      <c r="G40">
+        <v>5.1</v>
+      </c>
+      <c r="H40">
+        <v>58.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>11.5</v>
+      </c>
+      <c r="K40">
+        <v>7.7</v>
+      </c>
+      <c r="L40">
+        <v>3.8</v>
+      </c>
+      <c r="M40">
+        <v>4.26626</v>
+      </c>
+      <c r="N40">
+        <v>-0.4662600000000001</v>
+      </c>
+      <c r="O40">
+        <v>-0.1305528000000001</v>
+      </c>
+      <c r="P40">
+        <v>-0.3357072000000001</v>
+      </c>
+      <c r="Q40">
+        <v>7.3642928</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.06335508661244772</v>
+      </c>
+      <c r="T40">
+        <v>1.145234885856943</v>
+      </c>
+      <c r="U40">
+        <v>0.109</v>
+      </c>
+      <c r="V40">
+        <v>0.2493987708203438</v>
+      </c>
+      <c r="W40">
+        <v>0.08181553398058253</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.8907098957869422</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07136705661233894</v>
+      </c>
+      <c r="C41">
+        <v>19.34574214688346</v>
+      </c>
+      <c r="D41">
+        <v>54.41574214688346</v>
+      </c>
+      <c r="E41">
+        <v>-4.329999999999998</v>
+      </c>
+      <c r="F41">
+        <v>40.17</v>
+      </c>
+      <c r="G41">
+        <v>5.1</v>
+      </c>
+      <c r="H41">
+        <v>58.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>11.5</v>
+      </c>
+      <c r="K41">
+        <v>7.7</v>
+      </c>
+      <c r="L41">
+        <v>3.8</v>
+      </c>
+      <c r="M41">
+        <v>4.37853</v>
+      </c>
+      <c r="N41">
+        <v>-0.5785300000000007</v>
+      </c>
+      <c r="O41">
+        <v>-0.1619884000000002</v>
+      </c>
+      <c r="P41">
+        <v>-0.4165416000000005</v>
+      </c>
+      <c r="Q41">
+        <v>7.2834584</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.06424123557330751</v>
+      </c>
+      <c r="T41">
+        <v>1.164009228248041</v>
+      </c>
+      <c r="U41">
+        <v>0.109</v>
+      </c>
+      <c r="V41">
+        <v>0.2430039305428991</v>
+      </c>
+      <c r="W41">
+        <v>0.08251257157082401</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.8678711805103538</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.07236405661233895</v>
+      </c>
+      <c r="C42">
+        <v>17.45546613809546</v>
+      </c>
+      <c r="D42">
+        <v>53.55546613809546</v>
+      </c>
+      <c r="E42">
+        <v>-3.299999999999997</v>
+      </c>
+      <c r="F42">
+        <v>41.2</v>
+      </c>
+      <c r="G42">
+        <v>5.1</v>
+      </c>
+      <c r="H42">
+        <v>58.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>11.5</v>
+      </c>
+      <c r="K42">
+        <v>7.7</v>
+      </c>
+      <c r="L42">
+        <v>3.8</v>
+      </c>
+      <c r="M42">
+        <v>4.4908</v>
+      </c>
+      <c r="N42">
+        <v>-0.6908000000000003</v>
+      </c>
+      <c r="O42">
+        <v>-0.1934240000000001</v>
+      </c>
+      <c r="P42">
+        <v>-0.4973760000000002</v>
+      </c>
+      <c r="Q42">
+        <v>7.202624</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.06515692283286265</v>
+      </c>
+      <c r="T42">
+        <v>1.183409382052175</v>
+      </c>
+      <c r="U42">
+        <v>0.109</v>
+      </c>
+      <c r="V42">
+        <v>0.2369288322793266</v>
+      </c>
+      <c r="W42">
+        <v>0.08317475728155341</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.846174400997595</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07336105661233894</v>
+      </c>
+      <c r="C43">
+        <v>15.59196755778332</v>
+      </c>
+      <c r="D43">
+        <v>52.72196755778332</v>
+      </c>
+      <c r="E43">
+        <v>-2.269999999999996</v>
+      </c>
+      <c r="F43">
+        <v>42.23</v>
+      </c>
+      <c r="G43">
+        <v>5.1</v>
+      </c>
+      <c r="H43">
+        <v>58.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>11.5</v>
+      </c>
+      <c r="K43">
+        <v>7.7</v>
+      </c>
+      <c r="L43">
+        <v>3.8</v>
+      </c>
+      <c r="M43">
+        <v>4.603070000000001</v>
+      </c>
+      <c r="N43">
+        <v>-0.8030700000000008</v>
+      </c>
+      <c r="O43">
+        <v>-0.2248596000000002</v>
+      </c>
+      <c r="P43">
+        <v>-0.5782104000000006</v>
+      </c>
+      <c r="Q43">
+        <v>7.1217896</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.06610365033850438</v>
+      </c>
+      <c r="T43">
+        <v>1.203467168188652</v>
+      </c>
+      <c r="U43">
+        <v>0.109</v>
+      </c>
+      <c r="V43">
+        <v>0.2311500802725137</v>
+      </c>
+      <c r="W43">
+        <v>0.08380464125029601</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.8255360009732633</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07435805661233895</v>
+      </c>
+      <c r="C44">
+        <v>13.75401533184577</v>
+      </c>
+      <c r="D44">
+        <v>51.91401533184577</v>
+      </c>
+      <c r="E44">
+        <v>-1.240000000000002</v>
+      </c>
+      <c r="F44">
+        <v>43.26</v>
+      </c>
+      <c r="G44">
+        <v>5.1</v>
+      </c>
+      <c r="H44">
+        <v>58.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>11.5</v>
+      </c>
+      <c r="K44">
+        <v>7.7</v>
+      </c>
+      <c r="L44">
+        <v>3.8</v>
+      </c>
+      <c r="M44">
+        <v>4.715339999999999</v>
+      </c>
+      <c r="N44">
+        <v>-0.9153399999999996</v>
+      </c>
+      <c r="O44">
+        <v>-0.2562951999999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.6590447999999998</v>
+      </c>
+      <c r="Q44">
+        <v>7.040955200000001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.06708302362020273</v>
+      </c>
+      <c r="T44">
+        <v>1.224216602122939</v>
+      </c>
+      <c r="U44">
+        <v>0.109</v>
+      </c>
+      <c r="V44">
+        <v>0.2256465069326921</v>
+      </c>
+      <c r="W44">
+        <v>0.08440453074433657</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.8058803819024716</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.089551883104524</v>
+      </c>
+      <c r="C45">
+        <v>2.895304640566877</v>
+      </c>
+      <c r="D45">
+        <v>42.08530464056687</v>
+      </c>
+      <c r="E45">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="F45">
+        <v>44.29</v>
+      </c>
+      <c r="G45">
+        <v>5.1</v>
+      </c>
+      <c r="H45">
+        <v>58.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>11.5</v>
+      </c>
+      <c r="K45">
+        <v>7.7</v>
+      </c>
+      <c r="L45">
+        <v>3.8</v>
+      </c>
+      <c r="M45">
+        <v>6.209458</v>
+      </c>
+      <c r="N45">
+        <v>-2.409458</v>
+      </c>
+      <c r="O45">
+        <v>-0.67464824</v>
+      </c>
+      <c r="P45">
+        <v>-1.73480976</v>
+      </c>
+      <c r="Q45">
+        <v>5.96519024</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.06946663191561869</v>
+      </c>
+      <c r="T45">
+        <v>1.274716777873278</v>
+      </c>
+      <c r="U45">
+        <v>0.1402</v>
+      </c>
+      <c r="V45">
+        <v>0.1713515092621611</v>
+      </c>
+      <c r="W45">
+        <v>0.116176518401445</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.6119696759362894</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.09086088310452402</v>
+      </c>
+      <c r="C46">
+        <v>1.18986242270978</v>
+      </c>
+      <c r="D46">
+        <v>41.40986242270978</v>
+      </c>
+      <c r="E46">
+        <v>0.8200000000000003</v>
+      </c>
+      <c r="F46">
+        <v>45.32</v>
+      </c>
+      <c r="G46">
+        <v>5.1</v>
+      </c>
+      <c r="H46">
+        <v>58.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>11.5</v>
+      </c>
+      <c r="K46">
+        <v>7.7</v>
+      </c>
+      <c r="L46">
+        <v>3.8</v>
+      </c>
+      <c r="M46">
+        <v>6.353864</v>
+      </c>
+      <c r="N46">
+        <v>-2.553864</v>
+      </c>
+      <c r="O46">
+        <v>-0.71508192</v>
+      </c>
+      <c r="P46">
+        <v>-1.83878208</v>
+      </c>
+      <c r="Q46">
+        <v>5.861217920000001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.07054103605696903</v>
+      </c>
+      <c r="T46">
+        <v>1.297479577478158</v>
+      </c>
+      <c r="U46">
+        <v>0.1402</v>
+      </c>
+      <c r="V46">
+        <v>0.1674571567789301</v>
+      </c>
+      <c r="W46">
+        <v>0.116722506619594</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.5980612742104647</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.09216988310452402</v>
+      </c>
+      <c r="C47">
+        <v>-0.4942414311952419</v>
+      </c>
+      <c r="D47">
+        <v>40.75575856880476</v>
+      </c>
+      <c r="E47">
+        <v>1.850000000000001</v>
+      </c>
+      <c r="F47">
+        <v>46.35</v>
+      </c>
+      <c r="G47">
+        <v>5.1</v>
+      </c>
+      <c r="H47">
+        <v>58.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11.5</v>
+      </c>
+      <c r="K47">
+        <v>7.7</v>
+      </c>
+      <c r="L47">
+        <v>3.8</v>
+      </c>
+      <c r="M47">
+        <v>6.49827</v>
+      </c>
+      <c r="N47">
+        <v>-2.69827</v>
+      </c>
+      <c r="O47">
+        <v>-0.7555156000000001</v>
+      </c>
+      <c r="P47">
+        <v>-1.9427544</v>
+      </c>
+      <c r="Q47">
+        <v>5.7572456</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07165450943982302</v>
+      </c>
+      <c r="T47">
+        <v>1.321070115250488</v>
+      </c>
+      <c r="U47">
+        <v>0.1402</v>
+      </c>
+      <c r="V47">
+        <v>0.1637358866282873</v>
+      </c>
+      <c r="W47">
+        <v>0.1172442286947141</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.5847710236724544</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.09347888310452401</v>
+      </c>
+      <c r="C48">
+        <v>-2.158002369794552</v>
+      </c>
+      <c r="D48">
+        <v>40.12199763020545</v>
+      </c>
+      <c r="E48">
+        <v>2.880000000000003</v>
+      </c>
+      <c r="F48">
+        <v>47.38</v>
+      </c>
+      <c r="G48">
+        <v>5.1</v>
+      </c>
+      <c r="H48">
+        <v>58.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11.5</v>
+      </c>
+      <c r="K48">
+        <v>7.7</v>
+      </c>
+      <c r="L48">
+        <v>3.8</v>
+      </c>
+      <c r="M48">
+        <v>6.642676</v>
+      </c>
+      <c r="N48">
+        <v>-2.842676</v>
+      </c>
+      <c r="O48">
+        <v>-0.7959492800000001</v>
+      </c>
+      <c r="P48">
+        <v>-2.04672672</v>
+      </c>
+      <c r="Q48">
+        <v>5.653273280000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07280922257759752</v>
+      </c>
+      <c r="T48">
+        <v>1.345534376644015</v>
+      </c>
+      <c r="U48">
+        <v>0.1402</v>
+      </c>
+      <c r="V48">
+        <v>0.1601764108320201</v>
+      </c>
+      <c r="W48">
+        <v>0.1177432672013508</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.5720586101143574</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.09478788310452402</v>
+      </c>
+      <c r="C49">
+        <v>-3.802354872051794</v>
+      </c>
+      <c r="D49">
+        <v>39.50764512794821</v>
+      </c>
+      <c r="E49">
+        <v>3.910000000000004</v>
+      </c>
+      <c r="F49">
+        <v>48.41</v>
+      </c>
+      <c r="G49">
+        <v>5.1</v>
+      </c>
+      <c r="H49">
+        <v>58.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11.5</v>
+      </c>
+      <c r="K49">
+        <v>7.7</v>
+      </c>
+      <c r="L49">
+        <v>3.8</v>
+      </c>
+      <c r="M49">
+        <v>6.787082</v>
+      </c>
+      <c r="N49">
+        <v>-2.987082</v>
+      </c>
+      <c r="O49">
+        <v>-0.8363829600000001</v>
+      </c>
+      <c r="P49">
+        <v>-2.15069904</v>
+      </c>
+      <c r="Q49">
+        <v>5.54930096</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.07400750979604276</v>
+      </c>
+      <c r="T49">
+        <v>1.37092181771277</v>
+      </c>
+      <c r="U49">
+        <v>0.1402</v>
+      </c>
+      <c r="V49">
+        <v>0.1567684020909133</v>
+      </c>
+      <c r="W49">
+        <v>0.1182210700268539</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.5598871503246903</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.09609688310452402</v>
+      </c>
+      <c r="C50">
+        <v>-5.428177044723668</v>
+      </c>
+      <c r="D50">
+        <v>38.91182295527633</v>
+      </c>
+      <c r="E50">
+        <v>4.939999999999998</v>
+      </c>
+      <c r="F50">
+        <v>49.44</v>
+      </c>
+      <c r="G50">
+        <v>5.1</v>
+      </c>
+      <c r="H50">
+        <v>58.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11.5</v>
+      </c>
+      <c r="K50">
+        <v>7.7</v>
+      </c>
+      <c r="L50">
+        <v>3.8</v>
+      </c>
+      <c r="M50">
+        <v>6.931487999999999</v>
+      </c>
+      <c r="N50">
+        <v>-3.131487999999999</v>
+      </c>
+      <c r="O50">
+        <v>-0.8768166399999998</v>
+      </c>
+      <c r="P50">
+        <v>-2.254671359999999</v>
+      </c>
+      <c r="Q50">
+        <v>5.445328640000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.0752518849844282</v>
+      </c>
+      <c r="T50">
+        <v>1.397285698822631</v>
+      </c>
+      <c r="U50">
+        <v>0.1402</v>
+      </c>
+      <c r="V50">
+        <v>0.1535023937140193</v>
+      </c>
+      <c r="W50">
+        <v>0.1186789644012945</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.5482228346929261</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.09740588310452401</v>
+      </c>
+      <c r="C51">
+        <v>-7.036294810004215</v>
+      </c>
+      <c r="D51">
+        <v>38.33370518999578</v>
+      </c>
+      <c r="E51">
+        <v>5.969999999999999</v>
+      </c>
+      <c r="F51">
+        <v>50.47</v>
+      </c>
+      <c r="G51">
+        <v>5.1</v>
+      </c>
+      <c r="H51">
+        <v>58.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11.5</v>
+      </c>
+      <c r="K51">
+        <v>7.7</v>
+      </c>
+      <c r="L51">
+        <v>3.8</v>
+      </c>
+      <c r="M51">
+        <v>7.075893999999999</v>
+      </c>
+      <c r="N51">
+        <v>-3.275893999999999</v>
+      </c>
+      <c r="O51">
+        <v>-0.9172503199999998</v>
+      </c>
+      <c r="P51">
+        <v>-2.358643679999999</v>
+      </c>
+      <c r="Q51">
+        <v>5.341356320000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.07654505919980914</v>
+      </c>
+      <c r="T51">
+        <v>1.424683457623075</v>
+      </c>
+      <c r="U51">
+        <v>0.1402</v>
+      </c>
+      <c r="V51">
+        <v>0.1503696918014883</v>
+      </c>
+      <c r="W51">
+        <v>0.1191181692094313</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.5370346135767439</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.098714883104524</v>
+      </c>
+      <c r="C52">
+        <v>-8.627485725335909</v>
+      </c>
+      <c r="D52">
+        <v>37.77251427466409</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>51.5</v>
+      </c>
+      <c r="G52">
+        <v>5.1</v>
+      </c>
+      <c r="H52">
+        <v>58.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>11.5</v>
+      </c>
+      <c r="K52">
+        <v>7.7</v>
+      </c>
+      <c r="L52">
+        <v>3.8</v>
+      </c>
+      <c r="M52">
+        <v>7.2203</v>
+      </c>
+      <c r="N52">
+        <v>-3.4203</v>
+      </c>
+      <c r="O52">
+        <v>-0.9576840000000001</v>
+      </c>
+      <c r="P52">
+        <v>-2.462616</v>
+      </c>
+      <c r="Q52">
+        <v>5.237384</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.07788996038380532</v>
+      </c>
+      <c r="T52">
+        <v>1.453177126775536</v>
+      </c>
+      <c r="U52">
+        <v>0.1402</v>
+      </c>
+      <c r="V52">
+        <v>0.1473622979654585</v>
+      </c>
+      <c r="W52">
+        <v>0.1195398058252427</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.5262939213052089</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.100023883104524</v>
+      </c>
+      <c r="C53">
+        <v>-10.2024824725383</v>
+      </c>
+      <c r="D53">
+        <v>37.2275175274617</v>
+      </c>
+      <c r="E53">
+        <v>8.030000000000001</v>
+      </c>
+      <c r="F53">
+        <v>52.53</v>
+      </c>
+      <c r="G53">
+        <v>5.1</v>
+      </c>
+      <c r="H53">
+        <v>58.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>11.5</v>
+      </c>
+      <c r="K53">
+        <v>7.7</v>
+      </c>
+      <c r="L53">
+        <v>3.8</v>
+      </c>
+      <c r="M53">
+        <v>7.364706</v>
+      </c>
+      <c r="N53">
+        <v>-3.564706</v>
+      </c>
+      <c r="O53">
+        <v>-0.9981176800000001</v>
+      </c>
+      <c r="P53">
+        <v>-2.56658832</v>
+      </c>
+      <c r="Q53">
+        <v>5.13341168</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.07928975549367891</v>
+      </c>
+      <c r="T53">
+        <v>1.48283380283218</v>
+      </c>
+      <c r="U53">
+        <v>0.1402</v>
+      </c>
+      <c r="V53">
+        <v>0.1444728411426064</v>
+      </c>
+      <c r="W53">
+        <v>0.1199449076718066</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.5159744326521656</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.101332883104524</v>
+      </c>
+      <c r="C54">
+        <v>-11.76197604917767</v>
+      </c>
+      <c r="D54">
+        <v>36.69802395082233</v>
+      </c>
+      <c r="E54">
+        <v>9.060000000000002</v>
+      </c>
+      <c r="F54">
+        <v>53.56</v>
+      </c>
+      <c r="G54">
+        <v>5.1</v>
+      </c>
+      <c r="H54">
+        <v>58.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>11.5</v>
+      </c>
+      <c r="K54">
+        <v>7.7</v>
+      </c>
+      <c r="L54">
+        <v>3.8</v>
+      </c>
+      <c r="M54">
+        <v>7.509112</v>
+      </c>
+      <c r="N54">
+        <v>-3.709112</v>
+      </c>
+      <c r="O54">
+        <v>-1.03855136</v>
+      </c>
+      <c r="P54">
+        <v>-2.67056064</v>
+      </c>
+      <c r="Q54">
+        <v>5.02943936</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.08074787539979722</v>
+      </c>
+      <c r="T54">
+        <v>1.513726173724517</v>
+      </c>
+      <c r="U54">
+        <v>0.1402</v>
+      </c>
+      <c r="V54">
+        <v>0.1416945172744793</v>
+      </c>
+      <c r="W54">
+        <v>0.120334428678118</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.5060518474088547</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1263428444707244</v>
+      </c>
+      <c r="C55">
+        <v>-20.63368705147251</v>
+      </c>
+      <c r="D55">
+        <v>28.85631294852749</v>
+      </c>
+      <c r="E55">
+        <v>10.09</v>
+      </c>
+      <c r="F55">
+        <v>54.59</v>
+      </c>
+      <c r="G55">
+        <v>5.1</v>
+      </c>
+      <c r="H55">
+        <v>58.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>11.5</v>
+      </c>
+      <c r="K55">
+        <v>7.7</v>
+      </c>
+      <c r="L55">
+        <v>3.8</v>
+      </c>
+      <c r="M55">
+        <v>10.028183</v>
+      </c>
+      <c r="N55">
+        <v>-6.228183</v>
+      </c>
+      <c r="O55">
+        <v>-1.74389124</v>
+      </c>
+      <c r="P55">
+        <v>-4.48429176</v>
+      </c>
+      <c r="Q55">
+        <v>3.215708240000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.08364242884702777</v>
+      </c>
+      <c r="T55">
+        <v>1.57505145862347</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.106100975620409</v>
+      </c>
+      <c r="W55">
+        <v>0.1642092507785309</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.3789320557871749</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1280868444707244</v>
+      </c>
+      <c r="C56">
+        <v>-22.08734852683592</v>
+      </c>
+      <c r="D56">
+        <v>28.43265147316408</v>
+      </c>
+      <c r="E56">
+        <v>11.12</v>
+      </c>
+      <c r="F56">
+        <v>55.62</v>
+      </c>
+      <c r="G56">
+        <v>5.1</v>
+      </c>
+      <c r="H56">
+        <v>58.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>11.5</v>
+      </c>
+      <c r="K56">
+        <v>7.7</v>
+      </c>
+      <c r="L56">
+        <v>3.8</v>
+      </c>
+      <c r="M56">
+        <v>10.217394</v>
+      </c>
+      <c r="N56">
+        <v>-6.417394000000001</v>
+      </c>
+      <c r="O56">
+        <v>-1.79687032</v>
+      </c>
+      <c r="P56">
+        <v>-4.62052368</v>
+      </c>
+      <c r="Q56">
+        <v>3.07947632</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.08525856860457184</v>
+      </c>
+      <c r="T56">
+        <v>1.60929170772398</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.1041361427385496</v>
+      </c>
+      <c r="W56">
+        <v>0.1645701905789284</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.3719147954948199</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1298308444707244</v>
+      </c>
+      <c r="C57">
+        <v>-23.52874981077236</v>
+      </c>
+      <c r="D57">
+        <v>28.02125018922765</v>
+      </c>
+      <c r="E57">
+        <v>12.15000000000001</v>
+      </c>
+      <c r="F57">
+        <v>56.65000000000001</v>
+      </c>
+      <c r="G57">
+        <v>5.1</v>
+      </c>
+      <c r="H57">
+        <v>58.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>11.5</v>
+      </c>
+      <c r="K57">
+        <v>7.7</v>
+      </c>
+      <c r="L57">
+        <v>3.8</v>
+      </c>
+      <c r="M57">
+        <v>10.406605</v>
+      </c>
+      <c r="N57">
+        <v>-6.606605000000001</v>
+      </c>
+      <c r="O57">
+        <v>-1.849849400000001</v>
+      </c>
+      <c r="P57">
+        <v>-4.7567556</v>
+      </c>
+      <c r="Q57">
+        <v>2.9432444</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.08694653679578457</v>
+      </c>
+      <c r="T57">
+        <v>1.645053745673402</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.1022427583251214</v>
+      </c>
+      <c r="W57">
+        <v>0.1649180052956752</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.3651527083040049</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1315748444707244</v>
+      </c>
+      <c r="C58">
+        <v>-24.95841550277586</v>
+      </c>
+      <c r="D58">
+        <v>27.62158449722414</v>
+      </c>
+      <c r="E58">
+        <v>13.18000000000001</v>
+      </c>
+      <c r="F58">
+        <v>57.68000000000001</v>
+      </c>
+      <c r="G58">
+        <v>5.1</v>
+      </c>
+      <c r="H58">
+        <v>58.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>11.5</v>
+      </c>
+      <c r="K58">
+        <v>7.7</v>
+      </c>
+      <c r="L58">
+        <v>3.8</v>
+      </c>
+      <c r="M58">
+        <v>10.595816</v>
+      </c>
+      <c r="N58">
+        <v>-6.795816000000001</v>
+      </c>
+      <c r="O58">
+        <v>-1.902828480000001</v>
+      </c>
+      <c r="P58">
+        <v>-4.89298752</v>
+      </c>
+      <c r="Q58">
+        <v>2.80701248</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.08871123081387057</v>
+      </c>
+      <c r="T58">
+        <v>1.682441330802343</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.1004169947836014</v>
+      </c>
+      <c r="W58">
+        <v>0.1652533980582524</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.3586321242271477</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1333188444707244</v>
+      </c>
+      <c r="C59">
+        <v>-26.37684069387278</v>
+      </c>
+      <c r="D59">
+        <v>27.23315930612723</v>
+      </c>
+      <c r="E59">
+        <v>14.21000000000001</v>
+      </c>
+      <c r="F59">
+        <v>58.71000000000001</v>
+      </c>
+      <c r="G59">
+        <v>5.1</v>
+      </c>
+      <c r="H59">
+        <v>58.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>11.5</v>
+      </c>
+      <c r="K59">
+        <v>7.7</v>
+      </c>
+      <c r="L59">
+        <v>3.8</v>
+      </c>
+      <c r="M59">
+        <v>10.785027</v>
+      </c>
+      <c r="N59">
+        <v>-6.985027000000001</v>
+      </c>
+      <c r="O59">
+        <v>-1.955807560000001</v>
+      </c>
+      <c r="P59">
+        <v>-5.02921944</v>
+      </c>
+      <c r="Q59">
+        <v>2.67078056</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.09055800362349548</v>
+      </c>
+      <c r="T59">
+        <v>1.721567873379141</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.09865529312073117</v>
+      </c>
+      <c r="W59">
+        <v>0.1655770226537217</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.3523403325740398</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1350628444707244</v>
+      </c>
+      <c r="C60">
+        <v>-27.78449301264599</v>
+      </c>
+      <c r="D60">
+        <v>26.855506987354</v>
+      </c>
+      <c r="E60">
+        <v>15.23999999999999</v>
+      </c>
+      <c r="F60">
+        <v>59.73999999999999</v>
+      </c>
+      <c r="G60">
+        <v>5.1</v>
+      </c>
+      <c r="H60">
+        <v>58.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>11.5</v>
+      </c>
+      <c r="K60">
+        <v>7.7</v>
+      </c>
+      <c r="L60">
+        <v>3.8</v>
+      </c>
+      <c r="M60">
+        <v>10.974238</v>
+      </c>
+      <c r="N60">
+        <v>-7.174238</v>
+      </c>
+      <c r="O60">
+        <v>-2.00878664</v>
+      </c>
+      <c r="P60">
+        <v>-5.16545136</v>
+      </c>
+      <c r="Q60">
+        <v>2.534548640000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09249271799548342</v>
+      </c>
+      <c r="T60">
+        <v>1.762557584650073</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.09695433979106341</v>
+      </c>
+      <c r="W60">
+        <v>0.1658894877803817</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.3462654992537978</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1368068444707244</v>
+      </c>
+      <c r="C61">
+        <v>-29.18181450334995</v>
+      </c>
+      <c r="D61">
+        <v>26.48818549665004</v>
+      </c>
+      <c r="E61">
+        <v>16.27</v>
+      </c>
+      <c r="F61">
+        <v>60.77</v>
+      </c>
+      <c r="G61">
+        <v>5.1</v>
+      </c>
+      <c r="H61">
+        <v>58.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>11.5</v>
+      </c>
+      <c r="K61">
+        <v>7.7</v>
+      </c>
+      <c r="L61">
+        <v>3.8</v>
+      </c>
+      <c r="M61">
+        <v>11.163449</v>
+      </c>
+      <c r="N61">
+        <v>-7.363449</v>
+      </c>
+      <c r="O61">
+        <v>-2.06176572</v>
+      </c>
+      <c r="P61">
+        <v>-5.30168328</v>
+      </c>
+      <c r="Q61">
+        <v>2.39831672</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.09452180867830011</v>
+      </c>
+      <c r="T61">
+        <v>1.805546794031782</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.09531104589629963</v>
+      </c>
+      <c r="W61">
+        <v>0.1661913608688498</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.3403965924867843</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1385508444707244</v>
+      </c>
+      <c r="C62">
+        <v>-30.56922335197548</v>
+      </c>
+      <c r="D62">
+        <v>26.13077664802452</v>
+      </c>
+      <c r="E62">
+        <v>17.3</v>
+      </c>
+      <c r="F62">
+        <v>61.8</v>
+      </c>
+      <c r="G62">
+        <v>5.1</v>
+      </c>
+      <c r="H62">
+        <v>58.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>11.5</v>
+      </c>
+      <c r="K62">
+        <v>7.7</v>
+      </c>
+      <c r="L62">
+        <v>3.8</v>
+      </c>
+      <c r="M62">
+        <v>11.35266</v>
+      </c>
+      <c r="N62">
+        <v>-7.55266</v>
+      </c>
+      <c r="O62">
+        <v>-2.1147448</v>
+      </c>
+      <c r="P62">
+        <v>-5.4379152</v>
+      </c>
+      <c r="Q62">
+        <v>2.2620848</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.09665235389525761</v>
+      </c>
+      <c r="T62">
+        <v>1.850685463882576</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.09372252846469462</v>
+      </c>
+      <c r="W62">
+        <v>0.1664831715210356</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.3347233159453379</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1402948444707244</v>
+      </c>
+      <c r="C63">
+        <v>-31.94711547443484</v>
+      </c>
+      <c r="D63">
+        <v>25.78288452556516</v>
+      </c>
+      <c r="E63">
+        <v>18.33</v>
+      </c>
+      <c r="F63">
+        <v>62.83</v>
+      </c>
+      <c r="G63">
+        <v>5.1</v>
+      </c>
+      <c r="H63">
+        <v>58.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>11.5</v>
+      </c>
+      <c r="K63">
+        <v>7.7</v>
+      </c>
+      <c r="L63">
+        <v>3.8</v>
+      </c>
+      <c r="M63">
+        <v>11.541871</v>
+      </c>
+      <c r="N63">
+        <v>-7.741871000000001</v>
+      </c>
+      <c r="O63">
+        <v>-2.16772388</v>
+      </c>
+      <c r="P63">
+        <v>-5.57414712</v>
+      </c>
+      <c r="Q63">
+        <v>2.12585288</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.09889215784128987</v>
+      </c>
+      <c r="T63">
+        <v>1.898138937315463</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.09218609357183077</v>
+      </c>
+      <c r="W63">
+        <v>0.1667654146108547</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.3292360484708241</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1420388444707244</v>
+      </c>
+      <c r="C64">
+        <v>-33.31586597954793</v>
+      </c>
+      <c r="D64">
+        <v>25.44413402045207</v>
+      </c>
+      <c r="E64">
+        <v>19.36</v>
+      </c>
+      <c r="F64">
+        <v>63.86</v>
+      </c>
+      <c r="G64">
+        <v>5.1</v>
+      </c>
+      <c r="H64">
+        <v>58.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>11.5</v>
+      </c>
+      <c r="K64">
+        <v>7.7</v>
+      </c>
+      <c r="L64">
+        <v>3.8</v>
+      </c>
+      <c r="M64">
+        <v>11.731082</v>
+      </c>
+      <c r="N64">
+        <v>-7.931082000000001</v>
+      </c>
+      <c r="O64">
+        <v>-2.220702960000001</v>
+      </c>
+      <c r="P64">
+        <v>-5.71037904</v>
+      </c>
+      <c r="Q64">
+        <v>1.98962096</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1012498462055343</v>
+      </c>
+      <c r="T64">
+        <v>1.948089961981659</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.09069922109486575</v>
+      </c>
+      <c r="W64">
+        <v>0.1670385530848732</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.3239257896245206</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1437828444707244</v>
+      </c>
+      <c r="C65">
+        <v>-34.67583051819456</v>
+      </c>
+      <c r="D65">
+        <v>25.11416948180544</v>
+      </c>
+      <c r="E65">
+        <v>20.39</v>
+      </c>
+      <c r="F65">
+        <v>64.89</v>
+      </c>
+      <c r="G65">
+        <v>5.1</v>
+      </c>
+      <c r="H65">
+        <v>58.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>11.5</v>
+      </c>
+      <c r="K65">
+        <v>7.7</v>
+      </c>
+      <c r="L65">
+        <v>3.8</v>
+      </c>
+      <c r="M65">
+        <v>11.920293</v>
+      </c>
+      <c r="N65">
+        <v>-8.120293</v>
+      </c>
+      <c r="O65">
+        <v>-2.27368204</v>
+      </c>
+      <c r="P65">
+        <v>-5.84661096</v>
+      </c>
+      <c r="Q65">
+        <v>1.853389040000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1037349771840623</v>
+      </c>
+      <c r="T65">
+        <v>2.000741042035218</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.08925955091875677</v>
+      </c>
+      <c r="W65">
+        <v>0.1673030204962244</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.3187841104241314</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1455268444707244</v>
+      </c>
+      <c r="C66">
+        <v>-36.02734652883431</v>
+      </c>
+      <c r="D66">
+        <v>24.79265347116569</v>
+      </c>
+      <c r="E66">
+        <v>21.42</v>
+      </c>
+      <c r="F66">
+        <v>65.92</v>
+      </c>
+      <c r="G66">
+        <v>5.1</v>
+      </c>
+      <c r="H66">
+        <v>58.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>11.5</v>
+      </c>
+      <c r="K66">
+        <v>7.7</v>
+      </c>
+      <c r="L66">
+        <v>3.8</v>
+      </c>
+      <c r="M66">
+        <v>12.109504</v>
+      </c>
+      <c r="N66">
+        <v>-8.309504</v>
+      </c>
+      <c r="O66">
+        <v>-2.32666112</v>
+      </c>
+      <c r="P66">
+        <v>-5.98284288</v>
+      </c>
+      <c r="Q66">
+        <v>1.71715712</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1063581709947307</v>
+      </c>
+      <c r="T66">
+        <v>2.056317182091752</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.08786487043565121</v>
+      </c>
+      <c r="W66">
+        <v>0.1675592233009709</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.3138031086987544</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1472708444707244</v>
+      </c>
+      <c r="C67">
+        <v>-37.37073438856353</v>
+      </c>
+      <c r="D67">
+        <v>24.47926561143648</v>
+      </c>
+      <c r="E67">
+        <v>22.45</v>
+      </c>
+      <c r="F67">
+        <v>66.95</v>
+      </c>
+      <c r="G67">
+        <v>5.1</v>
+      </c>
+      <c r="H67">
+        <v>58.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>11.5</v>
+      </c>
+      <c r="K67">
+        <v>7.7</v>
+      </c>
+      <c r="L67">
+        <v>3.8</v>
+      </c>
+      <c r="M67">
+        <v>12.298715</v>
+      </c>
+      <c r="N67">
+        <v>-8.498715000000001</v>
+      </c>
+      <c r="O67">
+        <v>-2.3796402</v>
+      </c>
+      <c r="P67">
+        <v>-6.1190748</v>
+      </c>
+      <c r="Q67">
+        <v>1.5809252</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1091312615945802</v>
+      </c>
+      <c r="T67">
+        <v>2.115069101580088</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.08651310319817963</v>
+      </c>
+      <c r="W67">
+        <v>0.1678075429424944</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3089753685649274</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1490148444707244</v>
+      </c>
+      <c r="C68">
+        <v>-38.70629847796342</v>
+      </c>
+      <c r="D68">
+        <v>24.17370152203658</v>
+      </c>
+      <c r="E68">
+        <v>23.48</v>
+      </c>
+      <c r="F68">
+        <v>67.98</v>
+      </c>
+      <c r="G68">
+        <v>5.1</v>
+      </c>
+      <c r="H68">
+        <v>58.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>11.5</v>
+      </c>
+      <c r="K68">
+        <v>7.7</v>
+      </c>
+      <c r="L68">
+        <v>3.8</v>
+      </c>
+      <c r="M68">
+        <v>12.487926</v>
+      </c>
+      <c r="N68">
+        <v>-8.687926000000001</v>
+      </c>
+      <c r="O68">
+        <v>-2.43261928</v>
+      </c>
+      <c r="P68">
+        <v>-6.25530672</v>
+      </c>
+      <c r="Q68">
+        <v>1.44469328</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1120674751708913</v>
+      </c>
+      <c r="T68">
+        <v>2.177277016332443</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.08520229860426783</v>
+      </c>
+      <c r="W68">
+        <v>0.168048337746396</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.3042939235866708</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1507588444707244</v>
+      </c>
+      <c r="C69">
+        <v>-40.0343281671792</v>
+      </c>
+      <c r="D69">
+        <v>23.8756718328208</v>
+      </c>
+      <c r="E69">
+        <v>24.51000000000001</v>
+      </c>
+      <c r="F69">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="G69">
+        <v>5.1</v>
+      </c>
+      <c r="H69">
+        <v>58.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>11.5</v>
+      </c>
+      <c r="K69">
+        <v>7.7</v>
+      </c>
+      <c r="L69">
+        <v>3.8</v>
+      </c>
+      <c r="M69">
+        <v>12.677137</v>
+      </c>
+      <c r="N69">
+        <v>-8.877137000000001</v>
+      </c>
+      <c r="O69">
+        <v>-2.48559836</v>
+      </c>
+      <c r="P69">
+        <v>-6.39153864</v>
+      </c>
+      <c r="Q69">
+        <v>1.30846136</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1151816410851608</v>
+      </c>
+      <c r="T69">
+        <v>2.243255107736457</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.08393062250569666</v>
+      </c>
+      <c r="W69">
+        <v>0.1682819446457035</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.299752223234631</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1525028444707244</v>
+      </c>
+      <c r="C70">
+        <v>-41.35509872994517</v>
+      </c>
+      <c r="D70">
+        <v>23.58490127005484</v>
+      </c>
+      <c r="E70">
+        <v>25.54000000000001</v>
+      </c>
+      <c r="F70">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="G70">
+        <v>5.1</v>
+      </c>
+      <c r="H70">
+        <v>58.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>11.5</v>
+      </c>
+      <c r="K70">
+        <v>7.7</v>
+      </c>
+      <c r="L70">
+        <v>3.8</v>
+      </c>
+      <c r="M70">
+        <v>12.866348</v>
+      </c>
+      <c r="N70">
+        <v>-9.066348000000001</v>
+      </c>
+      <c r="O70">
+        <v>-2.538577440000001</v>
+      </c>
+      <c r="P70">
+        <v>-6.52777056</v>
+      </c>
+      <c r="Q70">
+        <v>1.17222944</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1184904423690721</v>
+      </c>
+      <c r="T70">
+        <v>2.313356829853221</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.08269634864531877</v>
+      </c>
+      <c r="W70">
+        <v>0.1685086807538549</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.29534410230471</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1542468444707244</v>
+      </c>
+      <c r="C71">
+        <v>-42.66887219162465</v>
+      </c>
+      <c r="D71">
+        <v>23.30112780837536</v>
+      </c>
+      <c r="E71">
+        <v>26.57000000000001</v>
+      </c>
+      <c r="F71">
+        <v>71.07000000000001</v>
+      </c>
+      <c r="G71">
+        <v>5.1</v>
+      </c>
+      <c r="H71">
+        <v>58.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>11.5</v>
+      </c>
+      <c r="K71">
+        <v>7.7</v>
+      </c>
+      <c r="L71">
+        <v>3.8</v>
+      </c>
+      <c r="M71">
+        <v>13.055559</v>
+      </c>
+      <c r="N71">
+        <v>-9.255559000000002</v>
+      </c>
+      <c r="O71">
+        <v>-2.591556520000001</v>
+      </c>
+      <c r="P71">
+        <v>-6.664002480000001</v>
+      </c>
+      <c r="Q71">
+        <v>1.03599752</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1220127147035582</v>
+      </c>
+      <c r="T71">
+        <v>2.387981243719454</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.08149785083886488</v>
+      </c>
+      <c r="W71">
+        <v>0.1687288448009005</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.291063752995946</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1559908444707244</v>
+      </c>
+      <c r="C72">
+        <v>-43.97589811675603</v>
+      </c>
+      <c r="D72">
+        <v>23.02410188324397</v>
+      </c>
+      <c r="E72">
+        <v>27.60000000000001</v>
+      </c>
+      <c r="F72">
+        <v>72.10000000000001</v>
+      </c>
+      <c r="G72">
+        <v>5.1</v>
+      </c>
+      <c r="H72">
+        <v>58.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>11.5</v>
+      </c>
+      <c r="K72">
+        <v>7.7</v>
+      </c>
+      <c r="L72">
+        <v>3.8</v>
+      </c>
+      <c r="M72">
+        <v>13.24477</v>
+      </c>
+      <c r="N72">
+        <v>-9.444770000000002</v>
+      </c>
+      <c r="O72">
+        <v>-2.644535600000001</v>
+      </c>
+      <c r="P72">
+        <v>-6.800234400000001</v>
+      </c>
+      <c r="Q72">
+        <v>0.8997655999999994</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1257698051936768</v>
+      </c>
+      <c r="T72">
+        <v>2.467580618510103</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.0803335958268811</v>
+      </c>
+      <c r="W72">
+        <v>0.1689427184466019</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2869056993817182</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1577348444707244</v>
+      </c>
+      <c r="C73">
+        <v>-45.27641434108027</v>
+      </c>
+      <c r="D73">
+        <v>22.75358565891973</v>
+      </c>
+      <c r="E73">
+        <v>28.63</v>
+      </c>
+      <c r="F73">
+        <v>73.13</v>
+      </c>
+      <c r="G73">
+        <v>5.1</v>
+      </c>
+      <c r="H73">
+        <v>58.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>11.5</v>
+      </c>
+      <c r="K73">
+        <v>7.7</v>
+      </c>
+      <c r="L73">
+        <v>3.8</v>
+      </c>
+      <c r="M73">
+        <v>13.433981</v>
+      </c>
+      <c r="N73">
+        <v>-9.633980999999999</v>
+      </c>
+      <c r="O73">
+        <v>-2.69751468</v>
+      </c>
+      <c r="P73">
+        <v>-6.936466319999999</v>
+      </c>
+      <c r="Q73">
+        <v>0.763533680000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1297860053727691</v>
+      </c>
+      <c r="T73">
+        <v>2.552669605355278</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.07920213673072785</v>
+      </c>
+      <c r="W73">
+        <v>0.1691505674825653</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2828647740383138</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1594788444707244</v>
+      </c>
+      <c r="C74">
+        <v>-46.57064765256304</v>
+      </c>
+      <c r="D74">
+        <v>22.48935234743696</v>
+      </c>
+      <c r="E74">
+        <v>29.66</v>
+      </c>
+      <c r="F74">
+        <v>74.16</v>
+      </c>
+      <c r="G74">
+        <v>5.1</v>
+      </c>
+      <c r="H74">
+        <v>58.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>11.5</v>
+      </c>
+      <c r="K74">
+        <v>7.7</v>
+      </c>
+      <c r="L74">
+        <v>3.8</v>
+      </c>
+      <c r="M74">
+        <v>13.623192</v>
+      </c>
+      <c r="N74">
+        <v>-9.823191999999999</v>
+      </c>
+      <c r="O74">
+        <v>-2.75049376</v>
+      </c>
+      <c r="P74">
+        <v>-7.072698239999999</v>
+      </c>
+      <c r="Q74">
+        <v>0.6273017600000008</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1340890769932251</v>
+      </c>
+      <c r="T74">
+        <v>2.643836376975109</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.07810210705391218</v>
+      </c>
+      <c r="W74">
+        <v>0.1693526429341963</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.278936096621115</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1612228444707244</v>
+      </c>
+      <c r="C75">
+        <v>-47.85881442551001</v>
+      </c>
+      <c r="D75">
+        <v>22.23118557448999</v>
+      </c>
+      <c r="E75">
+        <v>30.69</v>
+      </c>
+      <c r="F75">
+        <v>75.19</v>
+      </c>
+      <c r="G75">
+        <v>5.1</v>
+      </c>
+      <c r="H75">
+        <v>58.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>11.5</v>
+      </c>
+      <c r="K75">
+        <v>7.7</v>
+      </c>
+      <c r="L75">
+        <v>3.8</v>
+      </c>
+      <c r="M75">
+        <v>13.812403</v>
+      </c>
+      <c r="N75">
+        <v>-10.012403</v>
+      </c>
+      <c r="O75">
+        <v>-2.80347284</v>
+      </c>
+      <c r="P75">
+        <v>-7.20893016</v>
+      </c>
+      <c r="Q75">
+        <v>0.4910698400000006</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1387108946596409</v>
+      </c>
+      <c r="T75">
+        <v>2.741756242789002</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.07703221517646133</v>
+      </c>
+      <c r="W75">
+        <v>0.1695491820720841</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2751150542016476</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1629668444707244</v>
+      </c>
+      <c r="C76">
+        <v>-49.14112121150182</v>
+      </c>
+      <c r="D76">
+        <v>21.97887878849818</v>
+      </c>
+      <c r="E76">
+        <v>31.72</v>
+      </c>
+      <c r="F76">
+        <v>76.22</v>
+      </c>
+      <c r="G76">
+        <v>5.1</v>
+      </c>
+      <c r="H76">
+        <v>58.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>11.5</v>
+      </c>
+      <c r="K76">
+        <v>7.7</v>
+      </c>
+      <c r="L76">
+        <v>3.8</v>
+      </c>
+      <c r="M76">
+        <v>14.001614</v>
+      </c>
+      <c r="N76">
+        <v>-10.201614</v>
+      </c>
+      <c r="O76">
+        <v>-2.85645192</v>
+      </c>
+      <c r="P76">
+        <v>-7.34516208</v>
+      </c>
+      <c r="Q76">
+        <v>0.3548379200000005</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1436882367619348</v>
+      </c>
+      <c r="T76">
+        <v>2.847208405973194</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.07599123929569834</v>
+      </c>
+      <c r="W76">
+        <v>0.1697404093413802</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2713972831989226</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1647108444707244</v>
+      </c>
+      <c r="C77">
+        <v>-50.41776529054073</v>
+      </c>
+      <c r="D77">
+        <v>21.73223470945927</v>
+      </c>
+      <c r="E77">
+        <v>32.75</v>
+      </c>
+      <c r="F77">
+        <v>77.25</v>
+      </c>
+      <c r="G77">
+        <v>5.1</v>
+      </c>
+      <c r="H77">
+        <v>58.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>11.5</v>
+      </c>
+      <c r="K77">
+        <v>7.7</v>
+      </c>
+      <c r="L77">
+        <v>3.8</v>
+      </c>
+      <c r="M77">
+        <v>14.190825</v>
+      </c>
+      <c r="N77">
+        <v>-10.390825</v>
+      </c>
+      <c r="O77">
+        <v>-2.909431</v>
+      </c>
+      <c r="P77">
+        <v>-7.481394</v>
+      </c>
+      <c r="Q77">
+        <v>0.2186060000000003</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1490637662324122</v>
+      </c>
+      <c r="T77">
+        <v>2.961096742212123</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.07497802277175571</v>
+      </c>
+      <c r="W77">
+        <v>0.1699265372168285</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2677786527562703</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1664548444707244</v>
+      </c>
+      <c r="C78">
+        <v>-51.68893518549969</v>
+      </c>
+      <c r="D78">
+        <v>21.49106481450031</v>
+      </c>
+      <c r="E78">
+        <v>33.78</v>
+      </c>
+      <c r="F78">
+        <v>78.28</v>
+      </c>
+      <c r="G78">
+        <v>5.1</v>
+      </c>
+      <c r="H78">
+        <v>58.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>11.5</v>
+      </c>
+      <c r="K78">
+        <v>7.7</v>
+      </c>
+      <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
+        <v>14.380036</v>
+      </c>
+      <c r="N78">
+        <v>-10.580036</v>
+      </c>
+      <c r="O78">
+        <v>-2.96241008</v>
+      </c>
+      <c r="P78">
+        <v>-7.61762592</v>
+      </c>
+      <c r="Q78">
+        <v>0.08237408000000013</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.154887256492096</v>
+      </c>
+      <c r="T78">
+        <v>3.084475773137628</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.07399146984054839</v>
+      </c>
+      <c r="W78">
+        <v>0.1701077669902913</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.26425524943053</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1681988444707244</v>
+      </c>
+      <c r="C79">
+        <v>-52.95481114269328</v>
+      </c>
+      <c r="D79">
+        <v>21.25518885730672</v>
+      </c>
+      <c r="E79">
+        <v>34.81</v>
+      </c>
+      <c r="F79">
+        <v>79.31</v>
+      </c>
+      <c r="G79">
+        <v>5.1</v>
+      </c>
+      <c r="H79">
+        <v>58.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>11.5</v>
+      </c>
+      <c r="K79">
+        <v>7.7</v>
+      </c>
+      <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79">
+        <v>14.569247</v>
+      </c>
+      <c r="N79">
+        <v>-10.769247</v>
+      </c>
+      <c r="O79">
+        <v>-3.01538916</v>
+      </c>
+      <c r="P79">
+        <v>-7.75385784</v>
+      </c>
+      <c r="Q79">
+        <v>-0.05385784000000005</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1612171372091437</v>
+      </c>
+      <c r="T79">
+        <v>3.218583415447959</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.073030541660801</v>
+      </c>
+      <c r="W79">
+        <v>0.1702842894969109</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2608233630742893</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1699428444707244</v>
+      </c>
+      <c r="C80">
+        <v>-54.21556558114509</v>
+      </c>
+      <c r="D80">
+        <v>21.02443441885492</v>
+      </c>
+      <c r="E80">
+        <v>35.84</v>
+      </c>
+      <c r="F80">
+        <v>80.34</v>
+      </c>
+      <c r="G80">
+        <v>5.1</v>
+      </c>
+      <c r="H80">
+        <v>58.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>11.5</v>
+      </c>
+      <c r="K80">
+        <v>7.7</v>
+      </c>
+      <c r="L80">
+        <v>3.8</v>
+      </c>
+      <c r="M80">
+        <v>14.758458</v>
+      </c>
+      <c r="N80">
+        <v>-10.958458</v>
+      </c>
+      <c r="O80">
+        <v>-3.06836824</v>
+      </c>
+      <c r="P80">
+        <v>-7.89008976</v>
+      </c>
+      <c r="Q80">
+        <v>-0.1900897600000002</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1681224616277411</v>
+      </c>
+      <c r="T80">
+        <v>3.364882661604685</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.07209425266514971</v>
+      </c>
+      <c r="W80">
+        <v>0.170456285785412</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2574794738041061</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1716868444707244</v>
+      </c>
+      <c r="C81">
+        <v>-55.47136351290486</v>
+      </c>
+      <c r="D81">
+        <v>20.79863648709514</v>
+      </c>
+      <c r="E81">
+        <v>36.87</v>
+      </c>
+      <c r="F81">
+        <v>81.37</v>
+      </c>
+      <c r="G81">
+        <v>5.1</v>
+      </c>
+      <c r="H81">
+        <v>58.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>11.5</v>
+      </c>
+      <c r="K81">
+        <v>7.7</v>
+      </c>
+      <c r="L81">
+        <v>3.8</v>
+      </c>
+      <c r="M81">
+        <v>14.947669</v>
+      </c>
+      <c r="N81">
+        <v>-11.147669</v>
+      </c>
+      <c r="O81">
+        <v>-3.12134732</v>
+      </c>
+      <c r="P81">
+        <v>-8.026321680000001</v>
+      </c>
+      <c r="Q81">
+        <v>-0.3263216800000004</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1756854359909669</v>
+      </c>
+      <c r="T81">
+        <v>3.525115169300147</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.07118166718837565</v>
+      </c>
+      <c r="W81">
+        <v>0.1706239277374954</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.2542202399584845</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1734308444707244</v>
+      </c>
+      <c r="C82">
+        <v>-56.72236293656871</v>
+      </c>
+      <c r="D82">
+        <v>20.57763706343129</v>
+      </c>
+      <c r="E82">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="F82">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="G82">
+        <v>5.1</v>
+      </c>
+      <c r="H82">
+        <v>58.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>11.5</v>
+      </c>
+      <c r="K82">
+        <v>7.7</v>
+      </c>
+      <c r="L82">
+        <v>3.8</v>
+      </c>
+      <c r="M82">
+        <v>15.13688</v>
+      </c>
+      <c r="N82">
+        <v>-11.33688</v>
+      </c>
+      <c r="O82">
+        <v>-3.1743264</v>
+      </c>
+      <c r="P82">
+        <v>-8.162553600000001</v>
+      </c>
+      <c r="Q82">
+        <v>-0.4625536000000006</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1840047077905152</v>
+      </c>
+      <c r="T82">
+        <v>3.701370927765153</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.07029189634852095</v>
+      </c>
+      <c r="W82">
+        <v>0.1707873786407767</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.2510424869590034</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1751748444707244</v>
+      </c>
+      <c r="C83">
+        <v>-57.96871520597482</v>
+      </c>
+      <c r="D83">
+        <v>20.36128479402519</v>
+      </c>
+      <c r="E83">
+        <v>38.93000000000001</v>
+      </c>
+      <c r="F83">
+        <v>83.43000000000001</v>
+      </c>
+      <c r="G83">
+        <v>5.1</v>
+      </c>
+      <c r="H83">
+        <v>58.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>11.5</v>
+      </c>
+      <c r="K83">
+        <v>7.7</v>
+      </c>
+      <c r="L83">
+        <v>3.8</v>
+      </c>
+      <c r="M83">
+        <v>15.326091</v>
+      </c>
+      <c r="N83">
+        <v>-11.526091</v>
+      </c>
+      <c r="O83">
+        <v>-3.227305480000001</v>
+      </c>
+      <c r="P83">
+        <v>-8.298785520000001</v>
+      </c>
+      <c r="Q83">
+        <v>-0.5987855200000007</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1931996924110687</v>
+      </c>
+      <c r="T83">
+        <v>3.89617992396332</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.06942409515903304</v>
+      </c>
+      <c r="W83">
+        <v>0.1709467937192856</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.2479431969965467</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1769188444707244</v>
+      </c>
+      <c r="C84">
+        <v>-59.21056537588208</v>
+      </c>
+      <c r="D84">
+        <v>20.14943462411793</v>
+      </c>
+      <c r="E84">
+        <v>39.96000000000001</v>
+      </c>
+      <c r="F84">
+        <v>84.46000000000001</v>
+      </c>
+      <c r="G84">
+        <v>5.1</v>
+      </c>
+      <c r="H84">
+        <v>58.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>11.5</v>
+      </c>
+      <c r="K84">
+        <v>7.7</v>
+      </c>
+      <c r="L84">
+        <v>3.8</v>
+      </c>
+      <c r="M84">
+        <v>15.515302</v>
+      </c>
+      <c r="N84">
+        <v>-11.715302</v>
+      </c>
+      <c r="O84">
+        <v>-3.280284560000001</v>
+      </c>
+      <c r="P84">
+        <v>-8.435017440000001</v>
+      </c>
+      <c r="Q84">
+        <v>-0.7350174400000009</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2034163419894615</v>
+      </c>
+      <c r="T84">
+        <v>4.112634364183505</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.06857745985221557</v>
+      </c>
+      <c r="W84">
+        <v>0.171102320625148</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2449194994721985</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1786628444707244</v>
+      </c>
+      <c r="C85">
+        <v>-60.44805252629147</v>
+      </c>
+      <c r="D85">
+        <v>19.94194747370854</v>
+      </c>
+      <c r="E85">
+        <v>40.99000000000001</v>
+      </c>
+      <c r="F85">
+        <v>85.49000000000001</v>
+      </c>
+      <c r="G85">
+        <v>5.1</v>
+      </c>
+      <c r="H85">
+        <v>58.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>11.5</v>
+      </c>
+      <c r="K85">
+        <v>7.7</v>
+      </c>
+      <c r="L85">
+        <v>3.8</v>
+      </c>
+      <c r="M85">
+        <v>15.704513</v>
+      </c>
+      <c r="N85">
+        <v>-11.904513</v>
+      </c>
+      <c r="O85">
+        <v>-3.333263640000001</v>
+      </c>
+      <c r="P85">
+        <v>-8.571249360000001</v>
+      </c>
+      <c r="Q85">
+        <v>-0.8712493600000011</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2148349503417827</v>
+      </c>
+      <c r="T85">
+        <v>4.354554032664888</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.06775122539616478</v>
+      </c>
+      <c r="W85">
+        <v>0.1712540998947245</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2419686621291599</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1804068444707244</v>
+      </c>
+      <c r="C86">
+        <v>-61.68131006693356</v>
+      </c>
+      <c r="D86">
+        <v>19.73868993306644</v>
+      </c>
+      <c r="E86">
+        <v>42.02</v>
+      </c>
+      <c r="F86">
+        <v>86.52</v>
+      </c>
+      <c r="G86">
+        <v>5.1</v>
+      </c>
+      <c r="H86">
+        <v>58.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>11.5</v>
+      </c>
+      <c r="K86">
+        <v>7.7</v>
+      </c>
+      <c r="L86">
+        <v>3.8</v>
+      </c>
+      <c r="M86">
+        <v>15.893724</v>
+      </c>
+      <c r="N86">
+        <v>-12.093724</v>
+      </c>
+      <c r="O86">
+        <v>-3.38624272</v>
+      </c>
+      <c r="P86">
+        <v>-8.707481279999998</v>
+      </c>
+      <c r="Q86">
+        <v>-1.007481279999998</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.227680884738144</v>
+      </c>
+      <c r="T86">
+        <v>4.626713659706441</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.0669446631890676</v>
+      </c>
+      <c r="W86">
+        <v>0.1714022653721683</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2390880828180986</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1821508444707244</v>
+      </c>
+      <c r="C87">
+        <v>-62.91046602332286</v>
+      </c>
+      <c r="D87">
+        <v>19.53953397667714</v>
+      </c>
+      <c r="E87">
+        <v>43.05</v>
+      </c>
+      <c r="F87">
+        <v>87.55</v>
+      </c>
+      <c r="G87">
+        <v>5.1</v>
+      </c>
+      <c r="H87">
+        <v>58.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>11.5</v>
+      </c>
+      <c r="K87">
+        <v>7.7</v>
+      </c>
+      <c r="L87">
+        <v>3.8</v>
+      </c>
+      <c r="M87">
+        <v>16.082935</v>
+      </c>
+      <c r="N87">
+        <v>-12.282935</v>
+      </c>
+      <c r="O87">
+        <v>-3.4392218</v>
+      </c>
+      <c r="P87">
+        <v>-8.843713199999998</v>
+      </c>
+      <c r="Q87">
+        <v>-1.143713199999998</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2422396103873536</v>
+      </c>
+      <c r="T87">
+        <v>4.935161237020204</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.06615707891625504</v>
+      </c>
+      <c r="W87">
+        <v>0.171546944603084</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.236275281843768</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1838948444707244</v>
+      </c>
+      <c r="C88">
+        <v>-64.13564330566832</v>
+      </c>
+      <c r="D88">
+        <v>19.34435669433167</v>
+      </c>
+      <c r="E88">
+        <v>44.08</v>
+      </c>
+      <c r="F88">
+        <v>88.58</v>
+      </c>
+      <c r="G88">
+        <v>5.1</v>
+      </c>
+      <c r="H88">
+        <v>58.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>11.5</v>
+      </c>
+      <c r="K88">
+        <v>7.7</v>
+      </c>
+      <c r="L88">
+        <v>3.8</v>
+      </c>
+      <c r="M88">
+        <v>16.272146</v>
+      </c>
+      <c r="N88">
+        <v>-12.472146</v>
+      </c>
+      <c r="O88">
+        <v>-3.49220088</v>
+      </c>
+      <c r="P88">
+        <v>-8.979945119999998</v>
+      </c>
+      <c r="Q88">
+        <v>-1.279945119999998</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2588781539864503</v>
+      </c>
+      <c r="T88">
+        <v>5.287672753950218</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.0653878105567637</v>
+      </c>
+      <c r="W88">
+        <v>0.1716882592007225</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2335278948455847</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1856388444707244</v>
+      </c>
+      <c r="C89">
+        <v>-65.35695996182639</v>
+      </c>
+      <c r="D89">
+        <v>19.15304003817362</v>
+      </c>
+      <c r="E89">
+        <v>45.11</v>
+      </c>
+      <c r="F89">
+        <v>89.61</v>
+      </c>
+      <c r="G89">
+        <v>5.1</v>
+      </c>
+      <c r="H89">
+        <v>58.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>11.5</v>
+      </c>
+      <c r="K89">
+        <v>7.7</v>
+      </c>
+      <c r="L89">
+        <v>3.8</v>
+      </c>
+      <c r="M89">
+        <v>16.461357</v>
+      </c>
+      <c r="N89">
+        <v>-12.661357</v>
+      </c>
+      <c r="O89">
+        <v>-3.54517996</v>
+      </c>
+      <c r="P89">
+        <v>-9.116177039999998</v>
+      </c>
+      <c r="Q89">
+        <v>-1.416177039999998</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2780764735238695</v>
+      </c>
+      <c r="T89">
+        <v>5.694416811946389</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.06463622652737561</v>
+      </c>
+      <c r="W89">
+        <v>0.1718263251869211</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2308436661691986</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1873828444707244</v>
+      </c>
+      <c r="C90">
+        <v>-66.57452941539083</v>
+      </c>
+      <c r="D90">
+        <v>18.96547058460918</v>
+      </c>
+      <c r="E90">
+        <v>46.14</v>
+      </c>
+      <c r="F90">
+        <v>90.64</v>
+      </c>
+      <c r="G90">
+        <v>5.1</v>
+      </c>
+      <c r="H90">
+        <v>58.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>11.5</v>
+      </c>
+      <c r="K90">
+        <v>7.7</v>
+      </c>
+      <c r="L90">
+        <v>3.8</v>
+      </c>
+      <c r="M90">
+        <v>16.650568</v>
+      </c>
+      <c r="N90">
+        <v>-12.850568</v>
+      </c>
+      <c r="O90">
+        <v>-3.59815904</v>
+      </c>
+      <c r="P90">
+        <v>-9.252408959999999</v>
+      </c>
+      <c r="Q90">
+        <v>-1.552408959999998</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.300474512984192</v>
+      </c>
+      <c r="T90">
+        <v>6.168951546275255</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.06390172395320089</v>
+      </c>
+      <c r="W90">
+        <v>0.171961253309797</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2282204426900032</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1891268444707244</v>
+      </c>
+      <c r="C91">
+        <v>-67.78846068992834</v>
+      </c>
+      <c r="D91">
+        <v>18.78153931007167</v>
+      </c>
+      <c r="E91">
+        <v>47.17</v>
+      </c>
+      <c r="F91">
+        <v>91.67</v>
+      </c>
+      <c r="G91">
+        <v>5.1</v>
+      </c>
+      <c r="H91">
+        <v>58.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>11.5</v>
+      </c>
+      <c r="K91">
+        <v>7.7</v>
+      </c>
+      <c r="L91">
+        <v>3.8</v>
+      </c>
+      <c r="M91">
+        <v>16.839779</v>
+      </c>
+      <c r="N91">
+        <v>-13.039779</v>
+      </c>
+      <c r="O91">
+        <v>-3.65113812</v>
+      </c>
+      <c r="P91">
+        <v>-9.388640879999999</v>
+      </c>
+      <c r="Q91">
+        <v>-1.688640879999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3269449232554822</v>
+      </c>
+      <c r="T91">
+        <v>6.72976532320937</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.0631837270548503</v>
+      </c>
+      <c r="W91">
+        <v>0.172093149340024</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2256561680530368</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1908708444707244</v>
+      </c>
+      <c r="C92">
+        <v>-68.99885862029126</v>
+      </c>
+      <c r="D92">
+        <v>18.60114137970875</v>
+      </c>
+      <c r="E92">
+        <v>48.2</v>
+      </c>
+      <c r="F92">
+        <v>92.7</v>
+      </c>
+      <c r="G92">
+        <v>5.1</v>
+      </c>
+      <c r="H92">
+        <v>58.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>11.5</v>
+      </c>
+      <c r="K92">
+        <v>7.7</v>
+      </c>
+      <c r="L92">
+        <v>3.8</v>
+      </c>
+      <c r="M92">
+        <v>17.02899</v>
+      </c>
+      <c r="N92">
+        <v>-13.22899</v>
+      </c>
+      <c r="O92">
+        <v>-3.7041172</v>
+      </c>
+      <c r="P92">
+        <v>-9.524872799999999</v>
+      </c>
+      <c r="Q92">
+        <v>-1.824872799999999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3587094155810305</v>
+      </c>
+      <c r="T92">
+        <v>7.402741855530309</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.06248168564312975</v>
+      </c>
+      <c r="W92">
+        <v>0.1722221143473571</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.223148877296892</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1926148444707244</v>
+      </c>
+      <c r="C93">
+        <v>-70.20582405186815</v>
+      </c>
+      <c r="D93">
+        <v>18.42417594813186</v>
+      </c>
+      <c r="E93">
+        <v>49.23</v>
+      </c>
+      <c r="F93">
+        <v>93.73</v>
+      </c>
+      <c r="G93">
+        <v>5.1</v>
+      </c>
+      <c r="H93">
+        <v>58.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>11.5</v>
+      </c>
+      <c r="K93">
+        <v>7.7</v>
+      </c>
+      <c r="L93">
+        <v>3.8</v>
+      </c>
+      <c r="M93">
+        <v>17.218201</v>
+      </c>
+      <c r="N93">
+        <v>-13.418201</v>
+      </c>
+      <c r="O93">
+        <v>-3.75709628</v>
+      </c>
+      <c r="P93">
+        <v>-9.661104719999999</v>
+      </c>
+      <c r="Q93">
+        <v>-1.961104719999999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.3975326839789229</v>
+      </c>
+      <c r="T93">
+        <v>8.225268728367011</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.06179507371298546</v>
+      </c>
+      <c r="W93">
+        <v>0.1723482449589246</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.220696691832091</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1943588444707244</v>
+      </c>
+      <c r="C94">
+        <v>-71.40945402856794</v>
+      </c>
+      <c r="D94">
+        <v>18.25054597143207</v>
+      </c>
+      <c r="E94">
+        <v>50.26000000000001</v>
+      </c>
+      <c r="F94">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="G94">
+        <v>5.1</v>
+      </c>
+      <c r="H94">
+        <v>58.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>11.5</v>
+      </c>
+      <c r="K94">
+        <v>7.7</v>
+      </c>
+      <c r="L94">
+        <v>3.8</v>
+      </c>
+      <c r="M94">
+        <v>17.407412</v>
+      </c>
+      <c r="N94">
+        <v>-13.607412</v>
+      </c>
+      <c r="O94">
+        <v>-3.81007536</v>
+      </c>
+      <c r="P94">
+        <v>-9.797336639999999</v>
+      </c>
+      <c r="Q94">
+        <v>-2.097336639999999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4460617694762883</v>
+      </c>
+      <c r="T94">
+        <v>9.253427319412888</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.06112338812914866</v>
+      </c>
+      <c r="W94">
+        <v>0.1724716336006754</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2182978147469595</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1961028444707244</v>
+      </c>
+      <c r="C95">
+        <v>-72.60984197027386</v>
+      </c>
+      <c r="D95">
+        <v>18.08015802972615</v>
+      </c>
+      <c r="E95">
+        <v>51.29000000000001</v>
+      </c>
+      <c r="F95">
+        <v>95.79000000000001</v>
+      </c>
+      <c r="G95">
+        <v>5.1</v>
+      </c>
+      <c r="H95">
+        <v>58.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>11.5</v>
+      </c>
+      <c r="K95">
+        <v>7.7</v>
+      </c>
+      <c r="L95">
+        <v>3.8</v>
+      </c>
+      <c r="M95">
+        <v>17.596623</v>
+      </c>
+      <c r="N95">
+        <v>-13.796623</v>
+      </c>
+      <c r="O95">
+        <v>-3.86305444</v>
+      </c>
+      <c r="P95">
+        <v>-9.933568559999999</v>
+      </c>
+      <c r="Q95">
+        <v>-2.233568559999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.508456307972901</v>
+      </c>
+      <c r="T95">
+        <v>10.57534550790044</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.06046614739657717</v>
+      </c>
+      <c r="W95">
+        <v>0.1725923687232488</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.215950526416347</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1978468444707244</v>
+      </c>
+      <c r="C96">
+        <v>-73.80707784044901</v>
+      </c>
+      <c r="D96">
+        <v>17.912922159551</v>
+      </c>
+      <c r="E96">
+        <v>52.32000000000001</v>
+      </c>
+      <c r="F96">
+        <v>96.82000000000001</v>
+      </c>
+      <c r="G96">
+        <v>5.1</v>
+      </c>
+      <c r="H96">
+        <v>58.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>11.5</v>
+      </c>
+      <c r="K96">
+        <v>7.7</v>
+      </c>
+      <c r="L96">
+        <v>3.8</v>
+      </c>
+      <c r="M96">
+        <v>17.785834</v>
+      </c>
+      <c r="N96">
+        <v>-13.985834</v>
+      </c>
+      <c r="O96">
+        <v>-3.91603352</v>
+      </c>
+      <c r="P96">
+        <v>-10.06980048</v>
+      </c>
+      <c r="Q96">
+        <v>-2.369800479999999</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.5916490259683846</v>
+      </c>
+      <c r="T96">
+        <v>12.33790309255052</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.05982289050937954</v>
+      </c>
+      <c r="W96">
+        <v>0.172710535013427</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2136531803906413</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1995908444707244</v>
+      </c>
+      <c r="C97">
+        <v>-75.00124830452546</v>
+      </c>
+      <c r="D97">
+        <v>17.74875169547455</v>
+      </c>
+      <c r="E97">
+        <v>53.35000000000001</v>
+      </c>
+      <c r="F97">
+        <v>97.85000000000001</v>
+      </c>
+      <c r="G97">
+        <v>5.1</v>
+      </c>
+      <c r="H97">
+        <v>58.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>11.5</v>
+      </c>
+      <c r="K97">
+        <v>7.7</v>
+      </c>
+      <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
+        <v>17.975045</v>
+      </c>
+      <c r="N97">
+        <v>-14.175045</v>
+      </c>
+      <c r="O97">
+        <v>-3.969012600000001</v>
+      </c>
+      <c r="P97">
+        <v>-10.2060324</v>
+      </c>
+      <c r="Q97">
+        <v>-2.5060324</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7081188311620619</v>
+      </c>
+      <c r="T97">
+        <v>14.80548371106063</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.0591931758724387</v>
+      </c>
+      <c r="W97">
+        <v>0.172826213592233</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.211404199544424</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2013348444707244</v>
+      </c>
+      <c r="C98">
+        <v>-76.19243687966252</v>
+      </c>
+      <c r="D98">
+        <v>17.58756312033747</v>
+      </c>
+      <c r="E98">
+        <v>54.38</v>
+      </c>
+      <c r="F98">
+        <v>98.88</v>
+      </c>
+      <c r="G98">
+        <v>5.1</v>
+      </c>
+      <c r="H98">
+        <v>58.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>11.5</v>
+      </c>
+      <c r="K98">
+        <v>7.7</v>
+      </c>
+      <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
+        <v>18.164256</v>
+      </c>
+      <c r="N98">
+        <v>-14.364256</v>
+      </c>
+      <c r="O98">
+        <v>-4.021991679999999</v>
+      </c>
+      <c r="P98">
+        <v>-10.34226432</v>
+      </c>
+      <c r="Q98">
+        <v>-2.642264319999998</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.8828235389525754</v>
+      </c>
+      <c r="T98">
+        <v>18.50685463882575</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.05857658029043415</v>
+      </c>
+      <c r="W98">
+        <v>0.1729394822006473</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2092020724658362</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2030788444707244</v>
+      </c>
+      <c r="C99">
+        <v>-77.38072407641843</v>
+      </c>
+      <c r="D99">
+        <v>17.42927592358157</v>
+      </c>
+      <c r="E99">
+        <v>55.41</v>
+      </c>
+      <c r="F99">
+        <v>99.91</v>
+      </c>
+      <c r="G99">
+        <v>5.1</v>
+      </c>
+      <c r="H99">
+        <v>58.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>11.5</v>
+      </c>
+      <c r="K99">
+        <v>7.7</v>
+      </c>
+      <c r="L99">
+        <v>3.8</v>
+      </c>
+      <c r="M99">
+        <v>18.353467</v>
+      </c>
+      <c r="N99">
+        <v>-14.553467</v>
+      </c>
+      <c r="O99">
+        <v>-4.074970759999999</v>
+      </c>
+      <c r="P99">
+        <v>-10.47849624</v>
+      </c>
+      <c r="Q99">
+        <v>-2.778496239999998</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.173998051936767</v>
+      </c>
+      <c r="T99">
+        <v>24.675806185101</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.05797269801939874</v>
+      </c>
+      <c r="W99">
+        <v>0.1730504153738364</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2070453500692813</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2048228444707244</v>
+      </c>
+      <c r="C100">
+        <v>-78.56618753283965</v>
+      </c>
+      <c r="D100">
+        <v>17.27381246716035</v>
+      </c>
+      <c r="E100">
+        <v>56.44</v>
+      </c>
+      <c r="F100">
+        <v>100.94</v>
+      </c>
+      <c r="G100">
+        <v>5.1</v>
+      </c>
+      <c r="H100">
+        <v>58.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>11.5</v>
+      </c>
+      <c r="K100">
+        <v>7.7</v>
+      </c>
+      <c r="L100">
+        <v>3.8</v>
+      </c>
+      <c r="M100">
+        <v>18.542678</v>
+      </c>
+      <c r="N100">
+        <v>-14.742678</v>
+      </c>
+      <c r="O100">
+        <v>-4.127949839999999</v>
+      </c>
+      <c r="P100">
+        <v>-10.61472816</v>
+      </c>
+      <c r="Q100">
+        <v>-2.914728159999998</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.756347077905151</v>
+      </c>
+      <c r="T100">
+        <v>37.0137092776515</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.05738113987634365</v>
+      </c>
+      <c r="W100">
+        <v>0.1731590846047157</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.204932642415513</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2065668444707244</v>
+      </c>
+      <c r="C101">
+        <v>-79.74890214143772</v>
+      </c>
+      <c r="D101">
+        <v>17.12109785856227</v>
+      </c>
+      <c r="E101">
+        <v>57.47</v>
+      </c>
+      <c r="F101">
+        <v>101.97</v>
+      </c>
+      <c r="G101">
+        <v>5.1</v>
+      </c>
+      <c r="H101">
+        <v>58.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>11.5</v>
+      </c>
+      <c r="K101">
+        <v>7.7</v>
+      </c>
+      <c r="L101">
+        <v>3.8</v>
+      </c>
+      <c r="M101">
+        <v>18.731889</v>
+      </c>
+      <c r="N101">
+        <v>-14.931889</v>
+      </c>
+      <c r="O101">
+        <v>-4.180928919999999</v>
+      </c>
+      <c r="P101">
+        <v>-10.75096008</v>
+      </c>
+      <c r="Q101">
+        <v>-3.050960079999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.503394155810302</v>
+      </c>
+      <c r="T101">
+        <v>74.027418555303</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.05680153240284522</v>
+      </c>
+      <c r="W101">
+        <v>0.1732655584975973</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2028626157244473</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
